--- a/Output/UC_Corr.xlsx
+++ b/Output/UC_Corr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">LL</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t xml:space="preserve">corr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index</t>
   </si>
   <si>
     <t xml:space="preserve">mu</t>
@@ -413,3656 +410,5955 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>330.098028485003</v>
+        <v>-148.946717163891</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.26056824592123</v>
+        <v>-0.0447873307365662</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.64656161434243</v>
+        <v>-2.64572191171101</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.26289511000897</v>
+        <v>-0.0478513536493531</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.96715029797501</v>
+        <v>-1.96651702130973</v>
       </c>
       <c r="G2" t="n">
-        <v>0.999065537459168</v>
+        <v>0.999199225420084</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0259538786137583</v>
+        <v>2.60107646705694</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0259425858258768</v>
+        <v>2.59958582452924</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.989998196142839</v>
+        <v>-0.989981471503071</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0189099911575487</v>
+        <v>1.4404905845449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>330.096432600765</v>
+        <v>-148.974140866365</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.2600773985931</v>
+        <v>-0.0640876113898951</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.64645048814248</v>
+        <v>-2.64678563692055</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.26247453442465</v>
+        <v>-0.0667359029610599</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.96616495819601</v>
+        <v>-1.96759570894851</v>
       </c>
       <c r="G3" t="n">
-        <v>0.997943493282656</v>
+        <v>0.999767244204482</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0259585360352408</v>
+        <v>2.5776205310087</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0259468997292876</v>
+        <v>2.57634419561617</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.989995984286646</v>
+        <v>-0.990002654943921</v>
       </c>
       <c r="K3" t="n">
-        <v>23</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0189041110776771</v>
+        <v>1.43502329089243</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>330.095022793153</v>
+        <v>-149.249579210338</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.28927634384361</v>
+        <v>-0.0142418715914382</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.64635776775338</v>
+        <v>-2.64308695355862</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.29161051314643</v>
+        <v>-0.0102817173998946</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.96754004660885</v>
+        <v>-1.96679990661412</v>
       </c>
       <c r="G4" t="n">
-        <v>0.999137874957818</v>
+        <v>0.999480584991221</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0255813861621535</v>
+        <v>2.64056412046217</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0255702196979079</v>
+        <v>2.64252311099508</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.989994138068904</v>
+        <v>-0.989928805633575</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.0188720733801995</v>
+        <v>1.4950624240101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>329.804741733518</v>
+        <v>-151.136039001347</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>-9.2311568339575</v>
+        <v>0.253276108768077</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.6463753678175</v>
+        <v>-2.63332470229612</v>
       </c>
       <c r="E5" t="n">
-        <v>-9.23027810803162</v>
+        <v>0.252424811483354</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.9265300612565</v>
+        <v>-1.96714913655905</v>
       </c>
       <c r="G5" t="n">
-        <v>0.956590895683096</v>
+        <v>0.999616876235029</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0263491528165282</v>
+        <v>3.00166697371287</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0263534840053762</v>
+        <v>3.00118680717845</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.989994485755695</v>
+        <v>-0.989731248896578</v>
       </c>
       <c r="K5" t="n">
-        <v>92</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.0194666251731786</v>
+        <v>1.46996910544055</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>329.396478981233</v>
+        <v>-151.199147903937</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>-9.10845885583896</v>
+        <v>0.183487773675649</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.64591236981711</v>
+        <v>-2.64577707972278</v>
       </c>
       <c r="E6" t="n">
-        <v>-9.11325342960797</v>
+        <v>0.179058901592107</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.96825755578842</v>
+        <v>-1.97011054751354</v>
       </c>
       <c r="G6" t="n">
-        <v>0.999743592158284</v>
+        <v>0.999061509911151</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0279849983306458</v>
+        <v>2.91502049214374</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0279599081517849</v>
+        <v>2.91260614845744</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.98998527590395</v>
+        <v>-0.989982577337958</v>
       </c>
       <c r="K6" t="n">
-        <v>78</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.0186961280841793</v>
+        <v>1.40429033442954</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>284.079266560941</v>
+        <v>-152.879458023304</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>-9.23786642569177</v>
+        <v>0.0498045602195286</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.64562603795249</v>
+        <v>-2.64655890343213</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.58718518798975</v>
+        <v>0.0383093139866712</v>
       </c>
       <c r="F7" t="n">
-        <v>1.80282763233665</v>
+        <v>-1.95636662925915</v>
       </c>
       <c r="G7" t="n">
-        <v>0.999946920638961</v>
+        <v>0.999247804288321</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0155970713409312</v>
+        <v>2.72459013600366</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0141351164473794</v>
+        <v>2.71873852846518</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.928811596109777</v>
+        <v>-0.989998216753953</v>
       </c>
       <c r="K7" t="n">
-        <v>14</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.0216490672208253</v>
+        <v>1.56235709304033</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>283.496986235936</v>
+        <v>-191.089674487014</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>-9.16438827329113</v>
+        <v>-0.0618419840066359</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.6257045268598</v>
+        <v>-1.74582491000099</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.52492461398627</v>
+        <v>-0.352328945737133</v>
       </c>
       <c r="F8" t="n">
-        <v>1.7089707475037</v>
+        <v>1.8419267993552</v>
       </c>
       <c r="G8" t="n">
-        <v>0.999260786065758</v>
+        <v>0.99935529614687</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0160217293344096</v>
+        <v>1.61319509785075</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0144607480573909</v>
+        <v>1.4918130900664</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.926062658600972</v>
+        <v>-0.941217083231461</v>
       </c>
       <c r="K8" t="n">
-        <v>40</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.0225620321338771</v>
+        <v>1.64614007260079</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>258.159138006832</v>
+        <v>-191.700362482044</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.0619374848254</v>
+        <v>-0.087335346280068</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.53232229374696</v>
+        <v>-1.69490675577621</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.09856750654537</v>
+        <v>-0.405738220861402</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.0651857161936</v>
+        <v>1.73449218945012</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0719899080452379</v>
+        <v>0.999547512071552</v>
       </c>
       <c r="H9" t="n">
-        <v>0.105571771988404</v>
+        <v>1.5521212818622</v>
       </c>
       <c r="I9" t="n">
-        <v>0.153596532419378</v>
+        <v>1.42175679190619</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.98999888300421</v>
+        <v>-0.935191033362046</v>
       </c>
       <c r="K9" t="n">
-        <v>57</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.180330762131846</v>
+        <v>1.75787324084265</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>258.156377067643</v>
+        <v>-195.664335671388</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.07670432873312</v>
+        <v>0.210944635492048</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.53196318829169</v>
+        <v>-1.43216537683353</v>
       </c>
       <c r="E10" t="n">
-        <v>-5.11052713830588</v>
+        <v>-0.259667920248317</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.06593453981496</v>
+        <v>1.75893445002123</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0727680652309499</v>
+        <v>0.999131975705023</v>
       </c>
       <c r="H10" t="n">
-        <v>0.104837625255655</v>
+        <v>1.5863808544026</v>
       </c>
       <c r="I10" t="n">
-        <v>0.152614305401914</v>
+        <v>1.37047904432026</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.989998270919647</v>
+        <v>-0.893586979816464</v>
       </c>
       <c r="K10" t="n">
-        <v>21</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.180547210144601</v>
+        <v>1.862367384606</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>258.151025963293</v>
+        <v>-208.338074882816</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.09388849895209</v>
+        <v>1.30240764691119</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.52943105679203</v>
+        <v>-1.03893649743864</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.10621636445372</v>
+        <v>0.491258362685126</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.06545477375411</v>
+        <v>1.83340806843827</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0723140932053949</v>
+        <v>0.999073281820158</v>
       </c>
       <c r="H11" t="n">
-        <v>0.104276924299469</v>
+        <v>2.3141388652419</v>
       </c>
       <c r="I11" t="n">
-        <v>0.152449507662856</v>
+        <v>1.71105882141785</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.989998143258043</v>
+        <v>-0.785228456811191</v>
       </c>
       <c r="K11" t="n">
-        <v>31</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.180047011048684</v>
+        <v>2.13857588202273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>258.14753977804</v>
+        <v>-222.780502760263</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.0085377934095</v>
+        <v>2.22899000154125</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.53665918027035</v>
+        <v>-2.53003204650311</v>
       </c>
       <c r="E12" t="n">
-        <v>-5.08283104495911</v>
+        <v>4.21164028167961</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.06599948117784</v>
+        <v>-1.06674549632433</v>
       </c>
       <c r="G12" t="n">
-        <v>0.072757091199654</v>
+        <v>0.0738986003884619</v>
       </c>
       <c r="H12" t="n">
-        <v>0.107814236105591</v>
+        <v>11.02299640829</v>
       </c>
       <c r="I12" t="n">
-        <v>0.155689510194121</v>
+        <v>16.0991278605422</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.989998582825351</v>
+        <v>-0.989998308522623</v>
       </c>
       <c r="K12" t="n">
-        <v>26</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.181198290033819</v>
+        <v>18.7054135569863</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>258.146454521966</v>
+        <v>-222.783836177354</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>-7.0968533463294</v>
+        <v>2.25116907402663</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.52944143961081</v>
+        <v>-2.53199986729199</v>
       </c>
       <c r="E13" t="n">
-        <v>-5.11213490519665</v>
+        <v>4.21494786570803</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.06573862081213</v>
+        <v>-1.0664143522495</v>
       </c>
       <c r="G13" t="n">
-        <v>0.072595819728094</v>
+        <v>0.073524010759523</v>
       </c>
       <c r="H13" t="n">
-        <v>0.104056721486821</v>
+        <v>11.1128101434501</v>
       </c>
       <c r="I13" t="n">
-        <v>0.152045046558069</v>
+        <v>16.1699571707541</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.989991529437278</v>
+        <v>-0.989993511113689</v>
       </c>
       <c r="K13" t="n">
-        <v>54</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.180100388432844</v>
+        <v>18.7306612628652</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>258.139732822632</v>
+        <v>-222.785416028127</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.03067412410412</v>
+        <v>2.2526735175256</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.53495123963157</v>
+        <v>-2.53183998796218</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.09449408888196</v>
+        <v>4.21678391119797</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.06695228238315</v>
+        <v>-1.06401859281358</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0737624933324287</v>
+        <v>0.0710853897459545</v>
       </c>
       <c r="H14" t="n">
-        <v>0.106766060961946</v>
+        <v>11.1209817116548</v>
       </c>
       <c r="I14" t="n">
-        <v>0.154507269850132</v>
+        <v>16.1831791764872</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.989988677074067</v>
+        <v>-0.989991140773785</v>
       </c>
       <c r="K14" t="n">
-        <v>76</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.181374986828298</v>
+        <v>18.691849885425</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>258.137393031248</v>
+        <v>-222.787863259831</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>-7.09833320974828</v>
+        <v>2.24389996355003</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.52886527825276</v>
+        <v>-2.5303819100689</v>
       </c>
       <c r="E15" t="n">
-        <v>-5.11186493676538</v>
+        <v>4.21931177443819</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.0629669859263</v>
+        <v>-1.06682809730837</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0697933319331138</v>
+        <v>0.0739639135857186</v>
       </c>
       <c r="H15" t="n">
-        <v>0.103985813664179</v>
+        <v>11.0903156768503</v>
       </c>
       <c r="I15" t="n">
-        <v>0.152002087288151</v>
+        <v>16.1752066557721</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.989984298329376</v>
+        <v>-0.989988500403709</v>
       </c>
       <c r="K15" t="n">
-        <v>89</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.179845171411557</v>
+        <v>18.7102093817245</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>258.137329213906</v>
+        <v>-222.788508366891</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.98983356133422</v>
+        <v>2.28525964559408</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.53758247866115</v>
+        <v>-2.53325695754107</v>
       </c>
       <c r="E16" t="n">
-        <v>-5.07298955988907</v>
+        <v>4.23636195039942</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.06587346601955</v>
+        <v>-1.06451569704252</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0726306298351706</v>
+        <v>0.0715763943784014</v>
       </c>
       <c r="H16" t="n">
-        <v>0.108676634039786</v>
+        <v>11.2809481800801</v>
       </c>
       <c r="I16" t="n">
-        <v>0.156660858089131</v>
+        <v>16.3737411056859</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.989996851103274</v>
+        <v>-0.98998925280198</v>
       </c>
       <c r="K16" t="n">
-        <v>29</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.181583073759742</v>
+        <v>18.7365521857801</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>258.136999474126</v>
+        <v>-222.789924775835</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.11161019080468</v>
+        <v>2.22514762113617</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.52751588464023</v>
+        <v>-2.5282607276681</v>
       </c>
       <c r="E17" t="n">
-        <v>-5.10954566825862</v>
+        <v>4.22018312013184</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.06598172850586</v>
+        <v>-1.06618666276936</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0728670727574768</v>
+        <v>0.0733270134315792</v>
       </c>
       <c r="H17" t="n">
-        <v>0.103568857571295</v>
+        <v>11.0204662024349</v>
       </c>
       <c r="I17" t="n">
-        <v>0.151853861335765</v>
+        <v>16.1358949046531</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.9899940664187</v>
+        <v>-0.989992303387589</v>
       </c>
       <c r="K17" t="n">
-        <v>44</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.179748503686871</v>
+        <v>18.6364153673205</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>258.134690902307</v>
+        <v>-222.791677474462</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.00754297386456</v>
+        <v>2.28584931761304</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.53648088104512</v>
+        <v>-2.53525489259178</v>
       </c>
       <c r="E18" t="n">
-        <v>-5.08400251340711</v>
+        <v>4.22342547967572</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.06726340130283</v>
+        <v>-1.0680074868871</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0740516390895052</v>
+        <v>0.0750873690107963</v>
       </c>
       <c r="H18" t="n">
-        <v>0.107807287083498</v>
+        <v>11.2640193533635</v>
       </c>
       <c r="I18" t="n">
-        <v>0.155621263109592</v>
+        <v>16.3043252742613</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.989990244646682</v>
+        <v>-0.989997763956969</v>
       </c>
       <c r="K18" t="n">
-        <v>22</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.181579307689432</v>
+        <v>18.7910893783986</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>258.132845345603</v>
+        <v>-222.793011620074</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.10459396207187</v>
+        <v>2.24091645726051</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.52867829813384</v>
+        <v>-2.52974416066707</v>
       </c>
       <c r="E19" t="n">
-        <v>-5.11507153425133</v>
+        <v>4.22074209834004</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.06796280725654</v>
+        <v>-1.06751944149561</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0748590940851115</v>
+        <v>0.0746699106301063</v>
       </c>
       <c r="H19" t="n">
-        <v>0.10371840458527</v>
+        <v>11.0804072232062</v>
       </c>
       <c r="I19" t="n">
-        <v>0.151699948495657</v>
+        <v>16.1752331805423</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.989987701482219</v>
+        <v>-0.989986173743724</v>
       </c>
       <c r="K19" t="n">
-        <v>64</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.180223040578371</v>
+        <v>18.7037521174725</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>258.103788889391</v>
+        <v>-222.795023999615</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.97646663846843</v>
+        <v>2.21882347206554</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.53693988681992</v>
+        <v>-2.52822828572375</v>
       </c>
       <c r="E20" t="n">
-        <v>-5.05395428470209</v>
+        <v>4.21198515265416</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.06060010481713</v>
+        <v>-1.06723909352875</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0672940413327658</v>
+        <v>0.0744040790890819</v>
       </c>
       <c r="H20" t="n">
-        <v>0.109499181768373</v>
+        <v>10.9810310297994</v>
       </c>
       <c r="I20" t="n">
-        <v>0.158024178451714</v>
+        <v>16.0727068124029</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.989996929223233</v>
+        <v>-0.989987325298568</v>
       </c>
       <c r="K20" t="n">
-        <v>61</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.180977967618138</v>
+        <v>18.6679131813209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>258.101308893339</v>
+        <v>-222.812568646214</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.18265309216942</v>
+        <v>2.298769847399</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.52263481533513</v>
+        <v>-2.53607015374857</v>
       </c>
       <c r="E21" t="n">
-        <v>-5.13808248243856</v>
+        <v>4.2285560432908</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.06578417751122</v>
+        <v>-1.07088116357365</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0727364098203039</v>
+        <v>0.0780073889036576</v>
       </c>
       <c r="H21" t="n">
-        <v>0.100607242026335</v>
+        <v>11.3232241784138</v>
       </c>
       <c r="I21" t="n">
-        <v>0.148764737862632</v>
+        <v>16.3648531261404</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.989998589144913</v>
+        <v>-0.989996201545059</v>
       </c>
       <c r="K21" t="n">
-        <v>80</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.178938584830813</v>
+        <v>18.862727932273</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>258.086689447016</v>
+        <v>-222.81666236987</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>-7.17559744451094</v>
+        <v>2.18208309745594</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.5232549417979</v>
+        <v>-2.52466627216126</v>
       </c>
       <c r="E22" t="n">
-        <v>-5.143162149061</v>
+        <v>4.20418780413912</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.06811123814379</v>
+        <v>-1.06735278320428</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0750711241490048</v>
+        <v>0.0745668788153001</v>
       </c>
       <c r="H22" t="n">
-        <v>0.100731573874029</v>
+        <v>10.8274695165968</v>
       </c>
       <c r="I22" t="n">
-        <v>0.148605180555889</v>
+        <v>15.9400058384956</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.98998196822606</v>
+        <v>-0.989985218687208</v>
       </c>
       <c r="K22" t="n">
-        <v>36</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.17929844183992</v>
+        <v>18.6074511425793</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>258.067712083748</v>
+        <v>-222.817144375988</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>-6.99554084746332</v>
+        <v>2.35968559947413</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.5341774068273</v>
+        <v>-2.53914779212322</v>
       </c>
       <c r="E23" t="n">
-        <v>-5.07935122582893</v>
+        <v>4.26314218336751</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.06586042869659</v>
+        <v>-1.06428356754385</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0726185936234456</v>
+        <v>0.0712660317056022</v>
       </c>
       <c r="H23" t="n">
-        <v>0.10814826359734</v>
+        <v>11.627666053574</v>
       </c>
       <c r="I23" t="n">
-        <v>0.15595012844477</v>
+        <v>16.7171044747905</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.989928528006097</v>
+        <v>-0.98999774870134</v>
       </c>
       <c r="K23" t="n">
-        <v>35</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.181474481945898</v>
+        <v>18.8467669212231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>258.059049197368</v>
+        <v>-222.834235657999</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>-7.2231424004834</v>
+        <v>2.35183737593699</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.5195805393036</v>
+        <v>-2.53890847604531</v>
       </c>
       <c r="E24" t="n">
-        <v>-5.15466939764094</v>
+        <v>4.25197365378956</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.06656124114699</v>
+        <v>-1.06908686361787</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0735476284072904</v>
+        <v>0.0761240599217065</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0989375739065353</v>
+        <v>11.5724025126582</v>
       </c>
       <c r="I24" t="n">
-        <v>0.147000392053834</v>
+        <v>16.6280316829299</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.989996017312059</v>
+        <v>-0.989985714179808</v>
       </c>
       <c r="K24" t="n">
-        <v>85</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.178362043989249</v>
+        <v>18.886318602007</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>258.055596537157</v>
+        <v>-222.850033138709</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.20523427062134</v>
+        <v>2.12007512063314</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.51984451499437</v>
+        <v>-2.51989662008757</v>
       </c>
       <c r="E25" t="n">
-        <v>-5.14074351319791</v>
+        <v>4.18690885886343</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.06822027454585</v>
+        <v>-1.06366686781882</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0752128648692236</v>
+        <v>0.0708938531504335</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0997554013152489</v>
+        <v>10.5714894504087</v>
       </c>
       <c r="I25" t="n">
-        <v>0.148102031094478</v>
+        <v>15.7015927681273</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.989991618343828</v>
+        <v>-0.989998253008329</v>
       </c>
       <c r="K25" t="n">
-        <v>95</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.17845892923376</v>
+        <v>18.4681400785467</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>258.042694074968</v>
+        <v>-222.880981491262</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>-7.20521409389312</v>
+        <v>2.19638498637146</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.51971318954647</v>
+        <v>-2.53057592365008</v>
       </c>
       <c r="E26" t="n">
-        <v>-5.13816369018242</v>
+        <v>4.17239694457479</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.06972047994854</v>
+        <v>-1.07297386027804</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0767546480410556</v>
+        <v>0.0802032101555076</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0998048332325953</v>
+        <v>10.8325068867843</v>
       </c>
       <c r="I26" t="n">
-        <v>0.148247581581408</v>
+        <v>15.8005161812212</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.989995192615307</v>
+        <v>-0.989993673819546</v>
       </c>
       <c r="K26" t="n">
-        <v>100</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.178787206164631</v>
+        <v>18.7796080400812</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>258.023575390433</v>
+        <v>-222.897599833373</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>-7.24604422655558</v>
+        <v>2.14128894714603</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.51659917272395</v>
+        <v>-2.5207681351906</v>
       </c>
       <c r="E27" t="n">
-        <v>-5.15359654236303</v>
+        <v>4.20105027775509</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.06209719271476</v>
+        <v>-1.07311700082252</v>
       </c>
       <c r="G27" t="n">
-        <v>0.069065295495128</v>
+        <v>0.0804663438126698</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0981620004014593</v>
+        <v>10.6729233819111</v>
       </c>
       <c r="I27" t="n">
-        <v>0.146551304908198</v>
+        <v>15.8298005073176</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.989995713609001</v>
+        <v>-0.989998329360662</v>
       </c>
       <c r="K27" t="n">
-        <v>72</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.177529787270608</v>
+        <v>18.5811439018563</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>258.013199112122</v>
+        <v>-222.914602276057</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>-7.23652435806987</v>
+        <v>2.0811547179826</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.5166867516043</v>
+        <v>-2.5154408655233</v>
       </c>
       <c r="E28" t="n">
-        <v>-5.15743760894798</v>
+        <v>4.18033829520096</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.0660053150278</v>
+        <v>-1.06512423509313</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0729957512927501</v>
+        <v>0.0724167367218396</v>
       </c>
       <c r="H28" t="n">
-        <v>0.098347337113171</v>
+        <v>10.4154843450344</v>
       </c>
       <c r="I28" t="n">
-        <v>0.146467800639626</v>
+        <v>15.5715917330078</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.989965038019491</v>
+        <v>-0.989989491865254</v>
       </c>
       <c r="K28" t="n">
-        <v>17</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.177974453071556</v>
+        <v>18.4045945388877</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>257.96902325146</v>
+        <v>-222.923516372985</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>-7.27412646628346</v>
+        <v>2.0807804551074</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.51343247922794</v>
+        <v>-2.5154307851017</v>
       </c>
       <c r="E29" t="n">
-        <v>-5.15731723730965</v>
+        <v>4.18086759978402</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.06527885466495</v>
+        <v>-1.05970955531991</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0723052972588939</v>
+        <v>0.0669322807063668</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0971402686052448</v>
+        <v>10.4155392785951</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1457398406824</v>
+        <v>15.5742688822379</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.989993417583694</v>
+        <v>-0.98999149712202</v>
       </c>
       <c r="K29" t="n">
-        <v>53</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.177080003313838</v>
+        <v>18.3536388122653</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>257.9676969944</v>
+        <v>-222.930220434039</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>-6.88770076382629</v>
+        <v>2.35127265464519</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.54030562211631</v>
+        <v>-2.53266383015284</v>
       </c>
       <c r="E30" t="n">
-        <v>-5.02741892692262</v>
+        <v>4.26050796474232</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.06809714232852</v>
+        <v>-1.0687318700081</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0747884316640584</v>
+        <v>0.0758012026547011</v>
       </c>
       <c r="H30" t="n">
-        <v>0.113172085980067</v>
+        <v>11.5517212953656</v>
       </c>
       <c r="I30" t="n">
-        <v>0.161397889262377</v>
+        <v>16.6396427008378</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.989925625779374</v>
+        <v>-0.989883019921866</v>
       </c>
       <c r="K30" t="n">
-        <v>33</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.182710274396809</v>
+        <v>18.8707552417335</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>257.903965523794</v>
+        <v>-222.964068511352</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>-6.8439351892535</v>
+        <v>2.02584906931817</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.54479598506096</v>
+        <v>-2.51318056698836</v>
       </c>
       <c r="E31" t="n">
-        <v>-5.00439298811756</v>
+        <v>4.14249161702718</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.05857088674339</v>
+        <v>-1.06546466511003</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0650864151062308</v>
+        <v>0.0727914794556753</v>
       </c>
       <c r="H31" t="n">
-        <v>0.115454355340741</v>
+        <v>10.1574903639002</v>
       </c>
       <c r="I31" t="n">
-        <v>0.163932737159014</v>
+        <v>15.2394081700057</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.989969141849424</v>
+        <v>-0.989988093061374</v>
       </c>
       <c r="K31" t="n">
-        <v>68</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.182211178519563</v>
+        <v>18.3740513696468</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>257.878920041048</v>
+        <v>-222.977754494563</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>-7.31407936986233</v>
+        <v>2.13455371142045</v>
       </c>
       <c r="D32" t="n">
-        <v>-2.50900558658978</v>
+        <v>-2.51622556730882</v>
       </c>
       <c r="E32" t="n">
-        <v>-5.16198818861526</v>
+        <v>4.16960344657816</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.06568914029977</v>
+        <v>-1.06576727845546</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0727744125980612</v>
+        <v>0.0729867155464381</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0957248630401207</v>
+        <v>10.5533390051625</v>
       </c>
       <c r="I32" t="n">
-        <v>0.144638789791539</v>
+        <v>15.5916939497314</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.989994431343186</v>
+        <v>-0.98984981432786</v>
       </c>
       <c r="K32" t="n">
-        <v>73</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.176446079272651</v>
+        <v>18.5424125087356</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>257.821764283237</v>
+        <v>-222.981504427068</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>-7.06100065811705</v>
+        <v>2.06090818866324</v>
       </c>
       <c r="D33" t="n">
-        <v>-2.53165735635936</v>
+        <v>-2.51308725219423</v>
       </c>
       <c r="E33" t="n">
-        <v>-5.09479451841289</v>
+        <v>4.1812202682065</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.08600719003113</v>
+        <v>-1.07001973823898</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0931250260306977</v>
+        <v>0.0774011674914907</v>
       </c>
       <c r="H33" t="n">
-        <v>0.105646805901662</v>
+        <v>10.3449160829829</v>
       </c>
       <c r="I33" t="n">
-        <v>0.153799395287386</v>
+        <v>15.5312269459159</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.989992356524928</v>
+        <v>-0.98999529195731</v>
       </c>
       <c r="K33" t="n">
-        <v>67</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.182571969611873</v>
+        <v>18.3959206583147</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>257.779119008023</v>
+        <v>-223.001580329928</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>-7.36715099349487</v>
+        <v>2.01613978054967</v>
       </c>
       <c r="D34" t="n">
-        <v>-2.50414666142104</v>
+        <v>-2.51034559772504</v>
       </c>
       <c r="E34" t="n">
-        <v>-5.18021023645225</v>
+        <v>4.15961753036255</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.06462645333046</v>
+        <v>-1.06571992934716</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0717537690307261</v>
+        <v>0.0730957912489634</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0936848301942599</v>
+        <v>10.1520995540036</v>
       </c>
       <c r="I34" t="n">
-        <v>0.142563033027738</v>
+        <v>15.312527186831</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.989987384672709</v>
+        <v>-0.989999102879535</v>
       </c>
       <c r="K34" t="n">
-        <v>99</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.175716682440126</v>
+        <v>18.3279017316059</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>257.777693753837</v>
+        <v>-223.002197193211</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>-7.26845550304124</v>
+        <v>2.02529542085976</v>
       </c>
       <c r="D35" t="n">
-        <v>-2.5063828184695</v>
+        <v>-2.51015278045262</v>
       </c>
       <c r="E35" t="n">
-        <v>-5.16657767336341</v>
+        <v>4.16498344021751</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.07254255235692</v>
+        <v>-1.06449527886632</v>
       </c>
       <c r="G35" t="n">
-        <v>0.079668944133948</v>
+        <v>0.0718301295370836</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0967166308393251</v>
+        <v>10.1890680239587</v>
       </c>
       <c r="I35" t="n">
-        <v>0.144856620193489</v>
+        <v>15.3580902610585</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.989817805659955</v>
+        <v>-0.989985930753067</v>
       </c>
       <c r="K35" t="n">
-        <v>87</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.178033036956147</v>
+        <v>18.2967062980789</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>257.762321357279</v>
+        <v>-223.016626373309</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>-6.89361162643018</v>
+        <v>2.00585472790843</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.5285069253726</v>
+        <v>-2.50932985156221</v>
       </c>
       <c r="E36" t="n">
-        <v>-5.02067548791382</v>
+        <v>4.15467529016733</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.06684601123653</v>
+        <v>-1.06407358044104</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0735675530663337</v>
+        <v>0.0714270392867853</v>
       </c>
       <c r="H36" t="n">
-        <v>0.11240792579694</v>
+        <v>10.1062008649112</v>
       </c>
       <c r="I36" t="n">
-        <v>0.160925563877761</v>
+        <v>15.2604647167454</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.989718528905047</v>
+        <v>-0.989992597633077</v>
       </c>
       <c r="K36" t="n">
-        <v>7</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.182263485276057</v>
+        <v>18.2882551574394</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>257.68827623286</v>
+        <v>-223.033762686968</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>-7.28519187219946</v>
+        <v>2.01370702288362</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.50775376621895</v>
+        <v>-2.50865291718781</v>
       </c>
       <c r="E37" t="n">
-        <v>-5.12297709124374</v>
+        <v>4.16318323196654</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.04967211385171</v>
+        <v>-1.0657374609049</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0565758614891</v>
+        <v>0.0731095022158802</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0972668805530336</v>
+        <v>10.1435891933994</v>
       </c>
       <c r="I37" t="n">
-        <v>0.147267990444628</v>
+        <v>15.3202892207517</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.989995349304162</v>
+        <v>-0.989981027507368</v>
       </c>
       <c r="K37" t="n">
-        <v>12</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.174925711110758</v>
+        <v>18.2943855705666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>257.635620036273</v>
+        <v>-223.250601273674</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>-7.39127639682983</v>
+        <v>1.89874549147205</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.49939290463004</v>
+        <v>-2.49867782988288</v>
       </c>
       <c r="E38" t="n">
-        <v>-5.16654045393794</v>
+        <v>4.1262014259648</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.06575042170954</v>
+        <v>-1.06428211821009</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0729296591330043</v>
+        <v>0.0717394492375786</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0930944416401125</v>
+        <v>9.68981813441007</v>
       </c>
       <c r="I38" t="n">
-        <v>0.142747576668465</v>
+        <v>14.867009690576</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.989991402010174</v>
+        <v>-0.989984491422816</v>
       </c>
       <c r="K38" t="n">
-        <v>59</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.17489418612026</v>
+        <v>18.1029038311305</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>257.568982598665</v>
+        <v>-223.356830484692</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>-6.93969508989704</v>
+        <v>1.94313246813792</v>
       </c>
       <c r="D39" t="n">
-        <v>-2.53048875481577</v>
+        <v>-2.49146814830638</v>
       </c>
       <c r="E39" t="n">
-        <v>-4.96368186688437</v>
+        <v>4.1405055124389</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.07384718059577</v>
+        <v>-1.0654554287229</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0807884690278642</v>
+        <v>0.0729120819903972</v>
       </c>
       <c r="H39" t="n">
-        <v>0.112417402422618</v>
+        <v>9.80151934079892</v>
       </c>
       <c r="I39" t="n">
-        <v>0.163976295920048</v>
+        <v>14.9724808020861</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.989991972005622</v>
+        <v>-0.989764373689496</v>
       </c>
       <c r="K39" t="n">
-        <v>13</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.18087112729843</v>
+        <v>18.1659586297783</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>257.343807543561</v>
+        <v>-223.457387940168</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>-7.28642295386653</v>
+        <v>1.93409396114137</v>
       </c>
       <c r="D40" t="n">
-        <v>-2.48291072733367</v>
+        <v>-2.4955415685412</v>
       </c>
       <c r="E40" t="n">
-        <v>-5.12108571595103</v>
+        <v>4.18782572000589</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.06705988705506</v>
+        <v>-1.06891114748935</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0742045619909631</v>
+        <v>0.0764638400984713</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0959315650340618</v>
+        <v>9.90321891830465</v>
       </c>
       <c r="I40" t="n">
-        <v>0.145872271093967</v>
+        <v>15.2747592618223</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.989507637382365</v>
+        <v>-0.989991634022626</v>
       </c>
       <c r="K40" t="n">
-        <v>51</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.175632815070427</v>
+        <v>18.0905782227786</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>257.317831175662</v>
+        <v>-223.554606606417</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>-7.5569795086965</v>
+        <v>1.85335666890881</v>
       </c>
       <c r="D41" t="n">
-        <v>-2.48769404518839</v>
+        <v>-2.48629003144273</v>
       </c>
       <c r="E41" t="n">
-        <v>-5.24516716277461</v>
+        <v>4.14107313330732</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.05933528956223</v>
+        <v>-1.06549696012759</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0665626889862761</v>
+        <v>0.073057406024868</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0868093514173236</v>
+        <v>9.53446268997184</v>
       </c>
       <c r="I41" t="n">
-        <v>0.13548565875565</v>
+        <v>14.8188506070105</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.989992462292738</v>
+        <v>-0.98990061537751</v>
       </c>
       <c r="K41" t="n">
-        <v>56</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.172731928849741</v>
+        <v>17.9731651013965</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>257.284656099324</v>
+        <v>-223.591604265659</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>-7.55442443545581</v>
+        <v>1.87333766937572</v>
       </c>
       <c r="D42" t="n">
-        <v>-2.48621260393526</v>
+        <v>-2.48880227337332</v>
       </c>
       <c r="E42" t="n">
-        <v>-5.22993979478609</v>
+        <v>4.17091573719303</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.05891070696017</v>
+        <v>-1.06105546127295</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0661488275932938</v>
+        <v>0.0685748710672828</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0870966046310922</v>
+        <v>9.66522543784685</v>
       </c>
       <c r="I42" t="n">
-        <v>0.136279965416385</v>
+        <v>15.043098762754</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.989997648370935</v>
+        <v>-0.989976036769259</v>
       </c>
       <c r="K42" t="n">
-        <v>86</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.172446792934373</v>
+        <v>17.9285591004855</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>256.393786431151</v>
+        <v>-223.668930563409</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>-7.52778353266751</v>
+        <v>2.02376463458622</v>
       </c>
       <c r="D43" t="n">
-        <v>-2.44423037724631</v>
+        <v>-2.48031889671792</v>
       </c>
       <c r="E43" t="n">
-        <v>-5.15703661900494</v>
+        <v>4.12845660788537</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.06275791547935</v>
+        <v>-1.07122437982709</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0701274525928119</v>
+        <v>0.0786408515653487</v>
       </c>
       <c r="H43" t="n">
-        <v>0.087103212772065</v>
+        <v>9.93644492311499</v>
       </c>
       <c r="I43" t="n">
-        <v>0.138398830543054</v>
+        <v>14.9469374129691</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.989284250045917</v>
+        <v>-0.989294420491809</v>
       </c>
       <c r="K43" t="n">
-        <v>41</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.170873334400286</v>
+        <v>18.3470799629221</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>255.992517916139</v>
+        <v>-223.693319626269</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>-7.86861245787394</v>
+        <v>2.72841011650535</v>
       </c>
       <c r="D44" t="n">
-        <v>-2.4460164131747</v>
+        <v>-2.56209447250686</v>
       </c>
       <c r="E44" t="n">
-        <v>-5.31799452408199</v>
+        <v>4.40173793790058</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.05942523120507</v>
+        <v>-1.06613020445804</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0669573753914494</v>
+        <v>0.0727428731805219</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0766292253181163</v>
+        <v>13.4915113197687</v>
       </c>
       <c r="I44" t="n">
-        <v>0.125780338884811</v>
+        <v>18.5405082825802</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.989854026038071</v>
+        <v>-0.989968328213263</v>
       </c>
       <c r="K44" t="n">
-        <v>25</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.168001114280048</v>
+        <v>19.3715037882017</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>255.62497424007</v>
+        <v>-223.81060163115</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>-7.74339475147982</v>
+        <v>1.79230060215973</v>
       </c>
       <c r="D45" t="n">
-        <v>-2.44948291724535</v>
+        <v>-2.50315199569401</v>
       </c>
       <c r="E45" t="n">
-        <v>-5.16825419765408</v>
+        <v>3.99088581766471</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.07656631321349</v>
+        <v>-1.07390769330039</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0843026923343468</v>
+        <v>0.0814578107832001</v>
       </c>
       <c r="H45" t="n">
-        <v>0.082209934364989</v>
+        <v>9.151653530002</v>
       </c>
       <c r="I45" t="n">
-        <v>0.135456552353349</v>
+        <v>13.9580573838387</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.989994435204814</v>
+        <v>-0.989997598138933</v>
       </c>
       <c r="K45" t="n">
-        <v>74</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.169078424587497</v>
+        <v>18.2695203709277</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>254.48412480705</v>
+        <v>-223.981390920101</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>-8.12764538807291</v>
+        <v>1.66920805685396</v>
       </c>
       <c r="D46" t="n">
-        <v>-2.40831340246442</v>
+        <v>-2.47361237583635</v>
       </c>
       <c r="E46" t="n">
-        <v>-5.29599490495449</v>
+        <v>4.08114406129544</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.05607620467659</v>
+        <v>-1.06354560811718</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0638900163804858</v>
+        <v>0.0712420197902543</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0704124518192469</v>
+        <v>8.88030088741094</v>
       </c>
       <c r="I46" t="n">
-        <v>0.122450629379434</v>
+        <v>14.146666895197</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.989997383673507</v>
+        <v>-0.989992371732459</v>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.163062236151485</v>
+        <v>17.7084216180185</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>254.470152228809</v>
+        <v>-225.17029495942</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>-8.18205364802407</v>
+        <v>1.44637887571757</v>
       </c>
       <c r="D47" t="n">
-        <v>-2.4109447146292</v>
+        <v>-2.43656830474153</v>
       </c>
       <c r="E47" t="n">
-        <v>-5.36891584962757</v>
+        <v>4.06918828467571</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.04993653789719</v>
+        <v>-1.06507315405633</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0576716507963101</v>
+        <v>0.0730615358238468</v>
       </c>
       <c r="H47" t="n">
-        <v>0.068321742851239</v>
+        <v>8.16771689617049</v>
       </c>
       <c r="I47" t="n">
-        <v>0.118359127169807</v>
+        <v>13.606155031554</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.989988091667059</v>
+        <v>-0.989887005198815</v>
       </c>
       <c r="K47" t="n">
-        <v>88</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.162915710313904</v>
+        <v>17.2968312041489</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>247.19379811713</v>
+        <v>-225.506197251342</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>-7.48874040010976</v>
+        <v>1.3345458355647</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.87343268553252</v>
+        <v>-2.4296969891646</v>
       </c>
       <c r="E48" t="n">
-        <v>-5.0219161105275</v>
+        <v>4.03177366795959</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.09076303920684</v>
+        <v>-1.06405357958121</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0992009765550384</v>
+        <v>0.0721226259729362</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0650341050184327</v>
+        <v>7.82942615174252</v>
       </c>
       <c r="I48" t="n">
-        <v>0.118598588779076</v>
+        <v>13.2358151678998</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.96851447633064</v>
+        <v>-0.989982660231738</v>
       </c>
       <c r="K48" t="n">
-        <v>55</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.158050175121293</v>
+        <v>17.1687464530998</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>246.770824998215</v>
+        <v>-226.311880348855</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>-7.6900017301857</v>
+        <v>1.93804008212029</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.83968080396268</v>
+        <v>-2.32292677066302</v>
       </c>
       <c r="E49" t="n">
-        <v>-5.0810162255196</v>
+        <v>4.19595873528307</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.08724957841989</v>
+        <v>-1.07226972725541</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0958301790188584</v>
+        <v>0.080073595188765</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0594025085378604</v>
+        <v>9.0086971403025</v>
       </c>
       <c r="I49" t="n">
-        <v>0.112812756858163</v>
+        <v>14.3067572950581</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.967841087521534</v>
+        <v>-0.986017903791167</v>
       </c>
       <c r="K49" t="n">
-        <v>93</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.155639515341475</v>
+        <v>17.6519020108638</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>237.341212736564</v>
+        <v>-226.942425427529</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>-11.5881796703324</v>
+        <v>1.21182443037128</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.50371351192792</v>
+        <v>-2.39976942334261</v>
       </c>
       <c r="E50" t="n">
-        <v>-5.30906692365962</v>
+        <v>4.09288540790552</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.10508947042541</v>
+        <v>-1.08275357124714</v>
       </c>
       <c r="G50" t="n">
-        <v>0.115636947947365</v>
+        <v>0.0912103316303723</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0186468783303819</v>
+        <v>7.56365760698868</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0813582348504605</v>
+        <v>13.2933323628278</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.989982612963559</v>
+        <v>-0.98999486838263</v>
       </c>
       <c r="K50" t="n">
-        <v>84</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.135507036808204</v>
+        <v>16.9877270610585</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>236.494940604335</v>
+        <v>-227.944923690947</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>-6.29980615075393</v>
+        <v>0.905601546295657</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.574269801902157</v>
+        <v>-2.36147668941835</v>
       </c>
       <c r="E51" t="n">
-        <v>-7.86975428398632</v>
+        <v>4.00045661296812</v>
       </c>
       <c r="F51" t="n">
-        <v>1.62613856746652</v>
+        <v>-1.06567637422253</v>
       </c>
       <c r="G51" t="n">
-        <v>0.999118936751338</v>
+        <v>0.0741950594034986</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0450839308636133</v>
+        <v>6.68905176984127</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0223590787380537</v>
+        <v>12.3126064315091</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.556151358312385</v>
+        <v>-0.989990928764752</v>
       </c>
       <c r="K51" t="n">
-        <v>11</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.0391125271996367</v>
+        <v>16.4961623885059</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>216.714070036659</v>
+        <v>-228.023179303456</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>-8.34874118866475</v>
+        <v>0.878795694633217</v>
       </c>
       <c r="D52" t="n">
-        <v>2.12297954726071</v>
+        <v>-2.35896308348514</v>
       </c>
       <c r="E52" t="n">
-        <v>-7.63906198610123</v>
+        <v>3.98661240719195</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.43658944641847</v>
+        <v>-1.06459868176559</v>
       </c>
       <c r="G52" t="n">
-        <v>0.44836327346275</v>
+        <v>0.0731248390334173</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0351526410903171</v>
+        <v>6.61159614977774</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0413288713438118</v>
+        <v>12.2048672306084</v>
       </c>
       <c r="J52" t="n">
-        <v>0.972640104473604</v>
+        <v>-0.989988698842824</v>
       </c>
       <c r="K52" t="n">
-        <v>52</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.129659853162305</v>
+        <v>16.4701175764162</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>208.98720739908</v>
+        <v>-229.739494301028</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>-5.17645277357985</v>
+        <v>1.82138424199481</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.937945142704675</v>
+        <v>-2.1147198443418</v>
       </c>
       <c r="E53" t="n">
-        <v>-6.36149103554556</v>
+        <v>4.22692066219692</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.53968589654221</v>
+        <v>-1.07955059746812</v>
       </c>
       <c r="G53" t="n">
-        <v>0.999918485961856</v>
+        <v>0.0878531561431711</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0866275267591281</v>
+        <v>7.78491326900358</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0547375852832631</v>
+        <v>13.2511128155617</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.752487828456833</v>
+        <v>-0.979904961576942</v>
       </c>
       <c r="K53" t="n">
-        <v>28</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.0787753086417793</v>
+        <v>16.9319822806656</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>207.454848862895</v>
+        <v>-230.285060703995</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>-4.23709702123259</v>
+        <v>1.78627531331913</v>
       </c>
       <c r="D54" t="n">
-        <v>-2.26894162379914</v>
+        <v>-2.07986189077531</v>
       </c>
       <c r="E54" t="n">
-        <v>-4.47301354124634</v>
+        <v>4.22876442210439</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.617029453487734</v>
+        <v>-1.07946583311572</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.382559530773128</v>
+        <v>0.0878498970005722</v>
       </c>
       <c r="H54" t="n">
-        <v>0.257168734040039</v>
+        <v>7.55563803024488</v>
       </c>
       <c r="I54" t="n">
-        <v>0.244413804839877</v>
+        <v>13.0565963786785</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.978907220374763</v>
+        <v>-0.978732856833424</v>
       </c>
       <c r="K54" t="n">
-        <v>30</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0.0715383864109465</v>
+        <v>16.7909703125641</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>195.844115217684</v>
+        <v>-233.278277529416</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>-5.01228034392989</v>
+        <v>0.0247100790982844</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.183909486099037</v>
+        <v>-2.1769414627854</v>
       </c>
       <c r="E55" t="n">
-        <v>-5.85665853471036</v>
+        <v>3.99539569128264</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00442093577677495</v>
+        <v>-1.06441914368118</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.994700403912202</v>
+        <v>0.0737659902304872</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0821128187695318</v>
+        <v>4.84740601204502</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0540963512489722</v>
+        <v>10.9072853471008</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.187114701786837</v>
+        <v>-0.989985999989314</v>
       </c>
       <c r="K55" t="n">
-        <v>27</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.0820208419298799</v>
+        <v>15.3353288630126</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>193.141028327581</v>
+        <v>-233.704125119134</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>-4.15436883938367</v>
+        <v>-0.0822996078164305</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.937316081829698</v>
+        <v>-2.1581244645841</v>
       </c>
       <c r="E56" t="n">
-        <v>-5.75003150960271</v>
+        <v>3.96769360359686</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.459261664894498</v>
+        <v>-1.06470507689342</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.540391228045077</v>
+        <v>0.0741219186884682</v>
       </c>
       <c r="H56" t="n">
-        <v>0.142505715696036</v>
+        <v>4.64219258095955</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0771910186875335</v>
+        <v>10.6482377789575</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.766267569563926</v>
+        <v>-0.989987256525527</v>
       </c>
       <c r="K56" t="n">
-        <v>63</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.103556585368355</v>
+        <v>15.2519101512285</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>191.624384711392</v>
+        <v>-234.167439974438</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>-4.73480612587517</v>
+        <v>-0.053856878275534</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.639571834179888</v>
+        <v>-2.23059222754409</v>
       </c>
       <c r="E57" t="n">
-        <v>-5.68848042981824</v>
+        <v>3.68362614906256</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.02638521140592</v>
+        <v>-1.07031986576952</v>
       </c>
       <c r="G57" t="n">
-        <v>0.999375761108028</v>
+        <v>0.0795106802564994</v>
       </c>
       <c r="H57" t="n">
-        <v>0.100829450188341</v>
+        <v>4.52094788693083</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0663104204675236</v>
+        <v>9.62320148691259</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.578706965305835</v>
+        <v>-0.989989869495878</v>
       </c>
       <c r="K57" t="n">
-        <v>24</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0.0803645270658082</v>
+        <v>15.6518346148746</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>190.727862917784</v>
+        <v>-238.400811741578</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>-4.50707167396777</v>
+        <v>-1.01489353570078</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.777045183193732</v>
+        <v>-1.90392701664073</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.1019909744456</v>
+        <v>3.98991677364153</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.38866201874236</v>
+        <v>-1.08427718549313</v>
       </c>
       <c r="G58" t="n">
-        <v>0.567957171452136</v>
+        <v>0.0945098640261711</v>
       </c>
       <c r="H58" t="n">
-        <v>0.108316526987442</v>
+        <v>3.26426626475421</v>
       </c>
       <c r="I58" t="n">
-        <v>0.00981059120557021</v>
+        <v>9.60421387739072</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.989980347479469</v>
+        <v>-0.989984058500899</v>
       </c>
       <c r="K58" t="n">
-        <v>45</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.118885423042349</v>
+        <v>14.5315521684827</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>185.372679853532</v>
+        <v>-238.659570453588</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>-4.08837166449691</v>
+        <v>-0.998107987088932</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.735440294191326</v>
+        <v>-1.89269607985871</v>
       </c>
       <c r="E59" t="n">
-        <v>-5.01208571360774</v>
+        <v>4.04658496617422</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.191731061783212</v>
+        <v>-1.09438874158415</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.80795315681499</v>
+        <v>0.104679296729382</v>
       </c>
       <c r="H59" t="n">
-        <v>0.142554374725497</v>
+        <v>3.30707186634515</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0963802349238917</v>
+        <v>9.83795859741168</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.639321363581568</v>
+        <v>-0.989991053686245</v>
       </c>
       <c r="K59" t="n">
-        <v>15</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0.0748480758156247</v>
+        <v>14.5698837310405</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>179.656434190581</v>
+        <v>-247.070494462874</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>-3.12745579109787</v>
+        <v>-4.12292334548589</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.50054746372185</v>
+        <v>-0.904921336291376</v>
       </c>
       <c r="E60" t="n">
-        <v>-3.30515600419173</v>
+        <v>4.01639477570931</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.894516478695581</v>
+        <v>-1.1228948692169</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.104713520007138</v>
+        <v>0.134603627710813</v>
       </c>
       <c r="H60" t="n">
-        <v>0.31571374857229</v>
+        <v>0.863263544831981</v>
       </c>
       <c r="I60" t="n">
-        <v>0.299240962670158</v>
+        <v>7.78267423108224</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.905435331781753</v>
+        <v>-0.989992183056483</v>
       </c>
       <c r="K60" t="n">
-        <v>90</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0.110372487336758</v>
+        <v>13.3860917417687</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>164.057803854648</v>
+        <v>-249.156723416554</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>-3.38399217366337</v>
+        <v>-5.22150139335061</v>
       </c>
       <c r="D61" t="n">
-        <v>-1.18150769047943</v>
+        <v>-0.584139075006305</v>
       </c>
       <c r="E61" t="n">
-        <v>-3.63760808178103</v>
+        <v>4.17141655159942</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.448184169035716</v>
+        <v>-1.11709940784996</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.551021981325203</v>
+        <v>0.129047597866526</v>
       </c>
       <c r="H61" t="n">
-        <v>0.241475177960856</v>
+        <v>0.51194656838494</v>
       </c>
       <c r="I61" t="n">
-        <v>0.220954278621132</v>
+        <v>8.18159443124473</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.828565854095281</v>
+        <v>-0.989977394473772</v>
       </c>
       <c r="K61" t="n">
-        <v>60</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.0818316675708473</v>
+        <v>13.1287798082302</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>161.493299006077</v>
+        <v>-260.619575027025</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>-3.69608787849695</v>
+        <v>-0.483530806427663</v>
       </c>
       <c r="D62" t="n">
-        <v>-1.16958034334575</v>
+        <v>2.46077781685503</v>
       </c>
       <c r="E62" t="n">
-        <v>-5.21767815951883</v>
+        <v>2.00737152946162</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.0514692040361207</v>
+        <v>-1.30558472366273</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.948204087209575</v>
+        <v>0.318869565766421</v>
       </c>
       <c r="H62" t="n">
-        <v>0.191889333022221</v>
+        <v>3.05973312315635</v>
       </c>
       <c r="I62" t="n">
-        <v>0.113417425788369</v>
+        <v>4.95537201338492</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.846159710231333</v>
+        <v>0.989967016086901</v>
       </c>
       <c r="K62" t="n">
-        <v>48</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.0733569316962942</v>
+        <v>12.5841152177116</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>157.148457255615</v>
+        <v>-260.713296727622</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>-4.10078520410154</v>
+        <v>-0.266794227432816</v>
       </c>
       <c r="D63" t="n">
-        <v>-2.12325825178378</v>
+        <v>2.30627936677178</v>
       </c>
       <c r="E63" t="n">
-        <v>-2.31441694116099</v>
+        <v>2.081105209519</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.903189674340595</v>
+        <v>-1.26291169339032</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.0959368703329042</v>
+        <v>0.27660998274161</v>
       </c>
       <c r="H63" t="n">
-        <v>0.356022935389194</v>
+        <v>3.0227556948204</v>
       </c>
       <c r="I63" t="n">
-        <v>0.531211411621439</v>
+        <v>4.89901913070997</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.97685551971851</v>
+        <v>0.985908355510832</v>
       </c>
       <c r="K63" t="n">
-        <v>98</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0.099343582808967</v>
+        <v>12.2975072136497</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>147.594729554315</v>
+        <v>-266.140261471178</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>-4.27940907363679</v>
+        <v>1.39592356588953</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.990272656749691</v>
+        <v>2.59773077739997</v>
       </c>
       <c r="E64" t="n">
-        <v>-2.79214403365324</v>
+        <v>0.121262033986093</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.518591374663204</v>
+        <v>-1.43017498927023</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.48058577434649</v>
+        <v>0.442906469865867</v>
       </c>
       <c r="H64" t="n">
-        <v>0.163824195491415</v>
+        <v>4.38603879511821</v>
       </c>
       <c r="I64" t="n">
-        <v>0.286581025046234</v>
+        <v>3.44825872974384</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.78413352384778</v>
+        <v>0.989983610408106</v>
       </c>
       <c r="K64" t="n">
-        <v>79</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0.0896116520485381</v>
+        <v>12.6306467967268</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>146.086172912779</v>
+        <v>-268.562927024521</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.8873361962416</v>
+        <v>2.75062921298382</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.689032782243449</v>
+        <v>2.20612431963568</v>
       </c>
       <c r="E65" t="n">
-        <v>-3.22517719800376</v>
+        <v>-1.09281947915227</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.21562410023429</v>
+        <v>-1.61584624767273</v>
       </c>
       <c r="G65" t="n">
-        <v>0.215721386245506</v>
+        <v>0.625990091853323</v>
       </c>
       <c r="H65" t="n">
-        <v>0.260856448623206</v>
+        <v>5.95067543816229</v>
       </c>
       <c r="I65" t="n">
-        <v>0.225340585858337</v>
+        <v>2.72612340433052</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.599130193999348</v>
+        <v>0.98997912722218</v>
       </c>
       <c r="K65" t="n">
-        <v>37</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0.119731882091188</v>
+        <v>13.4939811413457</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>144.615323921426</v>
+        <v>-268.671512908491</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>-3.01423382920765</v>
+        <v>2.53820609791763</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.612220475878626</v>
+        <v>2.2559540895371</v>
       </c>
       <c r="E66" t="n">
-        <v>-3.1041618999002</v>
+        <v>-1.08299094236313</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.18550127107001</v>
+        <v>-1.59525585370106</v>
       </c>
       <c r="G66" t="n">
-        <v>0.185647681096373</v>
+        <v>0.605714149961805</v>
       </c>
       <c r="H66" t="n">
-        <v>0.241439515023356</v>
+        <v>5.51218756929907</v>
       </c>
       <c r="I66" t="n">
-        <v>0.231954870740169</v>
+        <v>2.66060623363718</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.545814260625306</v>
+        <v>0.989987735156286</v>
       </c>
       <c r="K66" t="n">
-        <v>58</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0.120553929370743</v>
+        <v>13.3704866929913</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>144.131720614371</v>
+        <v>-270.215430493589</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>-2.88674422267582</v>
+        <v>3.52194528747343</v>
       </c>
       <c r="D67" t="n">
-        <v>-1.21682526052468</v>
+        <v>1.65271116956939</v>
       </c>
       <c r="E67" t="n">
-        <v>-4.00519773752566</v>
+        <v>-2.30280286658333</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.31941512941896</v>
+        <v>-1.76188709610239</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.679685136468796</v>
+        <v>0.769179449284061</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2977268625362</v>
+        <v>6.99690650101941</v>
       </c>
       <c r="I67" t="n">
-        <v>0.203319998047738</v>
+        <v>1.86317043949374</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.850147103588388</v>
+        <v>0.989993137418767</v>
       </c>
       <c r="K67" t="n">
-        <v>94</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0.0807721295216922</v>
+        <v>14.3525295817348</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>141.669525404756</v>
+        <v>-271.84785438708</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>-1.88074341171688</v>
+        <v>3.2478110793458</v>
       </c>
       <c r="D68" t="n">
-        <v>-2.12420995474763</v>
+        <v>1.85172741186438</v>
       </c>
       <c r="E68" t="n">
-        <v>-3.41512866197419</v>
+        <v>-1.93549197298977</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.991296107770948</v>
+        <v>-1.52501901632238</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.00792637619099727</v>
+        <v>0.537217649472633</v>
       </c>
       <c r="H68" t="n">
-        <v>0.675444186813635</v>
+        <v>6.50043789399734</v>
       </c>
       <c r="I68" t="n">
-        <v>0.478139371918247</v>
+        <v>2.10076199157458</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.975676379215827</v>
+        <v>0.989989790451017</v>
       </c>
       <c r="K68" t="n">
-        <v>50</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0.11193914671728</v>
+        <v>12.1508929717279</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>140.122197699675</v>
+        <v>-281.878103310146</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>-2.64637444475498</v>
+        <v>4.55387760789782</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.766590285337329</v>
+        <v>-0.133640765879191</v>
       </c>
       <c r="E69" t="n">
-        <v>-2.92476720390426</v>
+        <v>0.87777744748444</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.05464221905575</v>
+        <v>0.51378597524398</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0549830525668556</v>
+        <v>-0.48610122627557</v>
       </c>
       <c r="H69" t="n">
-        <v>0.301444571920203</v>
+        <v>9.76420047124455</v>
       </c>
       <c r="I69" t="n">
-        <v>0.268146492793722</v>
+        <v>1.58632224866981</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.646112489068281</v>
+        <v>-0.217861263833581</v>
       </c>
       <c r="K69" t="n">
-        <v>70</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.111030952114192</v>
+        <v>9.19341233112406</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>134.559114210352</v>
+        <v>-282.416018409421</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>-2.0995807765032</v>
+        <v>4.5189284967605</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.68427703610085</v>
+        <v>-0.239999956333501</v>
       </c>
       <c r="E70" t="n">
-        <v>-3.46368299070095</v>
+        <v>1.59687166436808</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.630789913803223</v>
+        <v>-0.914934346904254</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.368967827625703</v>
+        <v>0.999441630065802</v>
       </c>
       <c r="H70" t="n">
-        <v>0.515040681893747</v>
+        <v>9.64181846830386</v>
       </c>
       <c r="I70" t="n">
-        <v>0.354926178320549</v>
+        <v>2.32989426825485</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.940850085785603</v>
+        <v>-0.320048140765699</v>
       </c>
       <c r="K70" t="n">
-        <v>19</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0.125020590555561</v>
+        <v>9.06989612100456</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>128.707533475376</v>
+        <v>-283.915273301848</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>-1.84011388967979</v>
+        <v>4.678981908276</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.49242099516594</v>
+        <v>-0.167966600247279</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.38889841954231</v>
+        <v>1.97583638839709</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.22719490930843</v>
+        <v>-1.25474378882477</v>
       </c>
       <c r="G71" t="n">
-        <v>0.228113488352549</v>
+        <v>0.999413411779932</v>
       </c>
       <c r="H71" t="n">
-        <v>0.579496242521305</v>
+        <v>10.411417611201</v>
       </c>
       <c r="I71" t="n">
-        <v>0.490989497205919</v>
+        <v>2.74336061661885</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.905573948359048</v>
+        <v>-0.219446977011016</v>
       </c>
       <c r="K71" t="n">
-        <v>83</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0.101492845487668</v>
+        <v>9.04163453688588</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>128.349791022125</v>
+        <v>-285.152984346548</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>-2.44716441175353</v>
+        <v>0.879770544345895</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.8112303462</v>
+        <v>-2.03194093873022</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.51029765011008</v>
+        <v>0.599334922952714</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.11975162022901</v>
+        <v>-1.10661291414961</v>
       </c>
       <c r="G72" t="n">
-        <v>0.119768472549818</v>
+        <v>0.999139740969157</v>
       </c>
       <c r="H72" t="n">
-        <v>0.340559192022306</v>
+        <v>2.95127068114864</v>
       </c>
       <c r="I72" t="n">
-        <v>0.331791949529111</v>
+        <v>2.76101408293388</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.670327190423543</v>
+        <v>-0.966384185438448</v>
       </c>
       <c r="K72" t="n">
-        <v>47</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0.115955714319921</v>
+        <v>5.49146844449432</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>126.43672977953</v>
+        <v>-286.798848601102</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>-4.86896204885876</v>
+        <v>4.68185336985305</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.694671480613907</v>
+        <v>-0.0334717232920135</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.20498613454864</v>
+        <v>0.301907077606327</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.976442507673065</v>
+        <v>-1.28799186736806</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.0231452198145254</v>
+        <v>0.999470367170257</v>
       </c>
       <c r="H73" t="n">
-        <v>0.116272404559299</v>
+        <v>10.3918905065252</v>
       </c>
       <c r="I73" t="n">
-        <v>0.351676363429244</v>
+        <v>1.16546847280741</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.702492047479969</v>
+        <v>-0.0672831188405153</v>
       </c>
       <c r="K73" t="n">
-        <v>18</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0.106946763740326</v>
+        <v>10.0818503617628</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>124.788041618204</v>
+        <v>-288.41496950493</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.81773704833773</v>
+        <v>4.83856923494487</v>
       </c>
       <c r="D74" t="n">
-        <v>-1.29675100751231</v>
+        <v>-0.78641456950161</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.05291541211754</v>
+        <v>-3.71944748939913</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.08417392718922</v>
+        <v>-1.37623489536897</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0848747859279858</v>
+        <v>0.562024442475699</v>
       </c>
       <c r="H74" t="n">
-        <v>0.554311638757178</v>
+        <v>11.5997413899261</v>
       </c>
       <c r="I74" t="n">
-        <v>0.512704363161874</v>
+        <v>1.06760799137125</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.861347566057146</v>
+        <v>-0.989966269365187</v>
       </c>
       <c r="K74" t="n">
-        <v>49</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0.109910154169299</v>
+        <v>12.1113841723756</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>118.067474827317</v>
+        <v>-288.414999643498</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>-1.82410250199911</v>
+        <v>4.83910994622719</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.982516222108966</v>
+        <v>-0.787290844822851</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.70460926005842</v>
+        <v>-3.71013204989648</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.06441984811352</v>
+        <v>-1.37605314588399</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0649653496677674</v>
+        <v>0.561778778667829</v>
       </c>
       <c r="H75" t="n">
-        <v>0.474620003580622</v>
+        <v>11.6040165272309</v>
       </c>
       <c r="I75" t="n">
-        <v>0.339198183824487</v>
+        <v>1.07029430890948</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.763877145072042</v>
+        <v>-0.989924906782982</v>
       </c>
       <c r="K75" t="n">
-        <v>65</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0.108423685224741</v>
+        <v>12.1139196358841</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>113.806379654799</v>
+        <v>-288.415180879577</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>-2.24865018358855</v>
+        <v>4.83937353764685</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.853177326548527</v>
+        <v>-0.794077512008322</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.00363542731675</v>
+        <v>-3.68726849264205</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.10109989058474</v>
+        <v>-1.37441852190877</v>
       </c>
       <c r="G76" t="n">
-        <v>0.10200673178877</v>
+        <v>0.560015672980906</v>
       </c>
       <c r="H76" t="n">
-        <v>0.387207994474176</v>
+        <v>11.6127456981432</v>
       </c>
       <c r="I76" t="n">
-        <v>0.427686185589395</v>
+        <v>1.08296770020531</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.693585234625966</v>
+        <v>-0.989944328023025</v>
       </c>
       <c r="K76" t="n">
-        <v>8</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0.115625971766873</v>
+        <v>12.1274376810607</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>108.309515950126</v>
+        <v>-288.415803726234</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>-1.83918932735937</v>
+        <v>4.84070115862732</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.71424678763894</v>
+        <v>-0.765506274378741</v>
       </c>
       <c r="E77" t="n">
-        <v>-3.04877311163149</v>
+        <v>-3.47527459000383</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.23617814895497</v>
+        <v>-1.37596282464033</v>
       </c>
       <c r="G77" t="n">
-        <v>0.236762537284874</v>
+        <v>0.561764926865308</v>
       </c>
       <c r="H77" t="n">
-        <v>0.433827202876333</v>
+        <v>11.6015881085121</v>
       </c>
       <c r="I77" t="n">
-        <v>0.25919299795684</v>
+        <v>1.07248439681671</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.635546745861963</v>
+        <v>-0.987267194337526</v>
       </c>
       <c r="K77" t="n">
-        <v>62</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.10859442312272</v>
+        <v>12.1129149689091</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>104.936423177538</v>
+        <v>-288.477639068502</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.51553276306238</v>
+        <v>4.80789524620527</v>
       </c>
       <c r="D78" t="n">
-        <v>-1.18897506860603</v>
+        <v>-0.621699361312375</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.76600894594619</v>
+        <v>-4.41635824781196</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.879543410310094</v>
+        <v>-1.40922676433795</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.120305241930635</v>
+        <v>0.602057398921991</v>
       </c>
       <c r="H78" t="n">
-        <v>0.61656157563151</v>
+        <v>11.2746681344536</v>
       </c>
       <c r="I78" t="n">
-        <v>0.564957683889702</v>
+        <v>0.764057611673957</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.830877879703371</v>
+        <v>-0.989983102702188</v>
       </c>
       <c r="K78" t="n">
-        <v>82</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.106596188714756</v>
+        <v>11.8054787057043</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>104.716996018466</v>
+        <v>-289.636725100913</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>-1.72678263644829</v>
+        <v>4.69617622667857</v>
       </c>
       <c r="D79" t="n">
-        <v>-1.02050302032004</v>
+        <v>-0.00337991982676071</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.8823191422555</v>
+        <v>-5.01789580994091</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.16475628403757</v>
+        <v>1.26961618539618</v>
       </c>
       <c r="G79" t="n">
-        <v>0.165029294080342</v>
+        <v>0.270320720583812</v>
       </c>
       <c r="H79" t="n">
-        <v>0.523134107714892</v>
+        <v>10.4655471759842</v>
       </c>
       <c r="I79" t="n">
-        <v>0.493323464909839</v>
+        <v>0.0814351867605309</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.770367128529469</v>
+        <v>-0.0447124662684256</v>
       </c>
       <c r="K79" t="n">
-        <v>4</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0.11674644658186</v>
+        <v>10.9182573752571</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>103.254707704663</v>
+        <v>-293.638700608283</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>-1.68610713796043</v>
+        <v>5.26181692567563</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.98027694705895</v>
+        <v>-1.95663720636445</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.86296525017365</v>
+        <v>0.433445992152757</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.07743132860528</v>
+        <v>-1.13697755303048</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0779348855380839</v>
+        <v>0.137406045386772</v>
       </c>
       <c r="H80" t="n">
-        <v>0.525431649727552</v>
+        <v>18.5146313089171</v>
       </c>
       <c r="I80" t="n">
-        <v>0.490925684296805</v>
+        <v>6.61191172094769</v>
       </c>
       <c r="J80" t="n">
-        <v>-0.753585319410593</v>
+        <v>-0.990025794235109</v>
       </c>
       <c r="K80" t="n">
-        <v>32</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0.11172995789185</v>
+        <v>10.2234869305295</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>101.969570298899</v>
+        <v>-307.478804830472</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>-1.87521607035175</v>
+        <v>1.11467928577258</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.606347103994628</v>
+        <v>1.91721287823219</v>
       </c>
       <c r="E81" t="n">
-        <v>-2.5309624805428</v>
+        <v>4.20244437680051</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.16233943844329</v>
+        <v>-0.833010054026626</v>
       </c>
       <c r="G81" t="n">
-        <v>0.163280940559342</v>
+        <v>-0.166806511688349</v>
       </c>
       <c r="H81" t="n">
-        <v>0.420612427307139</v>
+        <v>5.67328362743578</v>
       </c>
       <c r="I81" t="n">
-        <v>0.314015937587217</v>
+        <v>11.6785010644435</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.5482292352241</v>
+        <v>0.976511519913806</v>
       </c>
       <c r="K81" t="n">
-        <v>34</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.112263981250715</v>
+        <v>10.1795400998404</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>100.825317215643</v>
+        <v>-332.486096650556</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>-1.53417292810705</v>
+        <v>1.9699377345048</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.931123396792441</v>
+        <v>-0.866812720588234</v>
       </c>
       <c r="E82" t="n">
-        <v>-2.19882630196287</v>
+        <v>0.655315063145399</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.977940456936806</v>
+        <v>0.493990995575825</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.021115395055838</v>
+        <v>-0.50565032315945</v>
       </c>
       <c r="H82" t="n">
-        <v>0.544796131646472</v>
+        <v>3.01559957312152</v>
       </c>
       <c r="I82" t="n">
-        <v>0.420024690158933</v>
+        <v>1.78511984157402</v>
       </c>
       <c r="J82" t="n">
-        <v>-0.736995863841609</v>
+        <v>-0.723542250109432</v>
       </c>
       <c r="K82" t="n">
-        <v>81</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0.109833431562862</v>
+        <v>6.22286543099173</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>98.4873405741176</v>
+        <v>-337.36536562692</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.55949454686524</v>
+        <v>3.60764436971197</v>
       </c>
       <c r="D83" t="n">
-        <v>-1.08366647262343</v>
+        <v>0.629741292924146</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.65141245062269</v>
+        <v>2.57825204301798</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.14682706006999</v>
+        <v>-0.0493381342331293</v>
       </c>
       <c r="G83" t="n">
-        <v>0.14683382809152</v>
+        <v>0.999368771457241</v>
       </c>
       <c r="H83" t="n">
-        <v>0.584896085842612</v>
+        <v>6.51004754122056</v>
       </c>
       <c r="I83" t="n">
-        <v>0.565516210756847</v>
+        <v>4.13585968918907</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.794650645428461</v>
+        <v>0.574287077402259</v>
       </c>
       <c r="K83" t="n">
-        <v>16</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0.117618569423065</v>
+        <v>8.22587133165591</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>97.3804311489951</v>
+        <v>-362.006279559078</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>-2.03027895667634</v>
+        <v>6.2593938218444</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.693113404973683</v>
+        <v>0.26055406517598</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.87818265147486</v>
+        <v>-1.69401127783833</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.16135229358484</v>
+        <v>0.5832723369265</v>
       </c>
       <c r="G84" t="n">
-        <v>0.161574679477733</v>
+        <v>0.999122813536191</v>
       </c>
       <c r="H84" t="n">
-        <v>0.407262991466172</v>
+        <v>22.9524626023499</v>
       </c>
       <c r="I84" t="n">
-        <v>0.434971442526157</v>
+        <v>0.863831547806681</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.600337101924038</v>
+        <v>0.86921935372463</v>
       </c>
       <c r="K84" t="n">
-        <v>9</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0.120987370809638</v>
+        <v>10.8021486941636</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>96.4864361653832</v>
+        <v>-362.121634253251</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.72970383824538</v>
+        <v>-0.359636452103923</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.79535518515742</v>
+        <v>-2.58617265110352</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.93301292482858</v>
+        <v>-0.503646323385587</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.12942980655683</v>
+        <v>1.65309313618488</v>
       </c>
       <c r="G85" t="n">
-        <v>0.129918595722128</v>
+        <v>0.999634112117394</v>
       </c>
       <c r="H85" t="n">
-        <v>0.482284201287368</v>
+        <v>2.11190061669018</v>
       </c>
       <c r="I85" t="n">
-        <v>0.443198535202012</v>
+        <v>2.05456293329568</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.662046989701523</v>
+        <v>-0.988735336773839</v>
       </c>
       <c r="K85" t="n">
-        <v>46</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0.114280021286485</v>
+        <v>4.45264970113279</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>95.8789058812222</v>
+        <v>-363.451078761336</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.90480938813456</v>
+        <v>5.43800857169557</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.688829068565276</v>
+        <v>0.419761861475108</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.90884292050531</v>
+        <v>0.959370029515342</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.10583272779208</v>
+        <v>0.236206787906569</v>
       </c>
       <c r="G86" t="n">
-        <v>0.106291122071266</v>
+        <v>0.999682032409936</v>
       </c>
       <c r="H86" t="n">
-        <v>0.430736243550283</v>
+        <v>15.3982327770953</v>
       </c>
       <c r="I86" t="n">
-        <v>0.429983725559402</v>
+        <v>2.12968797556468</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.597229499459052</v>
+        <v>0.66469712547188</v>
       </c>
       <c r="K86" t="n">
-        <v>75</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0.114764336948505</v>
+        <v>9.9118891090298</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>94.7555414203309</v>
+        <v>-363.552071459281</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.37356384918757</v>
+        <v>4.50259885891505</v>
       </c>
       <c r="D87" t="n">
-        <v>-1.08030777343413</v>
+        <v>0.118335010285966</v>
       </c>
       <c r="E87" t="n">
-        <v>-1.91610338261381</v>
+        <v>-3.76076799254968</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.20654336994875</v>
+        <v>0.638974741205896</v>
       </c>
       <c r="G87" t="n">
-        <v>0.207397299261301</v>
+        <v>0.999297022644128</v>
       </c>
       <c r="H87" t="n">
-        <v>0.62416896786816</v>
+        <v>9.50714956774567</v>
       </c>
       <c r="I87" t="n">
-        <v>0.511675931891424</v>
+        <v>0.204328156579652</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.796642770924679</v>
+        <v>0.666005289037072</v>
       </c>
       <c r="K87" t="n">
-        <v>39</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0.109191947994213</v>
+        <v>10.8722026829067</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>94.2607296895612</v>
+        <v>-370.784050103482</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.60141305039596</v>
+        <v>2.25887307067383</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.76980550411565</v>
+        <v>2.42130723839261</v>
       </c>
       <c r="E88" t="n">
-        <v>-2.09706144690848</v>
+        <v>1.08880991275753</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.11157102315318</v>
+        <v>0.412758786931338</v>
       </c>
       <c r="G88" t="n">
-        <v>0.112172588229679</v>
+        <v>0.999504109421364</v>
       </c>
       <c r="H88" t="n">
-        <v>0.505044073791159</v>
+        <v>6.3182216564254</v>
       </c>
       <c r="I88" t="n">
-        <v>0.410233801192721</v>
+        <v>4.99029833227216</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.650511450260068</v>
+        <v>0.985593878045761</v>
       </c>
       <c r="K88" t="n">
-        <v>38</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0.111419659818712</v>
+        <v>9.02553548531606</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>92.2688267698386</v>
+        <v>-373.330457986982</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.58971835289738</v>
+        <v>0.216952340157143</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.73913173870786</v>
+        <v>2.15695471834233</v>
       </c>
       <c r="E89" t="n">
-        <v>-2.14211401803699</v>
+        <v>4.18825498217642</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.17020435890239</v>
+        <v>-0.493156214745962</v>
       </c>
       <c r="G89" t="n">
-        <v>0.17064483372075</v>
+        <v>0.999577746269444</v>
       </c>
       <c r="H89" t="n">
-        <v>0.502791858192918</v>
+        <v>5.27218240450924</v>
       </c>
       <c r="I89" t="n">
-        <v>0.397697335114497</v>
+        <v>11.934993122321</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.63327050549383</v>
+        <v>0.989606427361054</v>
       </c>
       <c r="K89" t="n">
-        <v>97</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0.113142639355677</v>
+        <v>7.29006894327407</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>90.1484653119662</v>
+        <v>-395.436882308882</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>-1.47702045127482</v>
+        <v>1.23627566723152</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.726001602087597</v>
+        <v>-0.111735621949051</v>
       </c>
       <c r="E90" t="n">
-        <v>-2.35530968663697</v>
+        <v>-0.738586894788368</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.14377186601215</v>
+        <v>1.70199739398281</v>
       </c>
       <c r="G90" t="n">
-        <v>0.144402453062319</v>
+        <v>0.702532818787598</v>
       </c>
       <c r="H90" t="n">
-        <v>0.525422995924052</v>
+        <v>1.85877697337653</v>
       </c>
       <c r="I90" t="n">
-        <v>0.361571479443017</v>
+        <v>0.695892887778079</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.632365483238871</v>
+        <v>-0.129944021668478</v>
       </c>
       <c r="K90" t="n">
-        <v>42</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0.109872253565709</v>
+        <v>4.68880651472563</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>89.1661517332287</v>
+        <v>-404.3780870696</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>-1.43743025193251</v>
+        <v>3.28429976873962</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.874750077841347</v>
+        <v>2.73725691488117</v>
       </c>
       <c r="E91" t="n">
-        <v>-1.83565363756296</v>
+        <v>4.23189003810005</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.13229598852824</v>
+        <v>1.32716617077921</v>
       </c>
       <c r="G91" t="n">
-        <v>0.132461667088658</v>
+        <v>0.999378245055377</v>
       </c>
       <c r="H91" t="n">
-        <v>0.567934365955315</v>
+        <v>16.9568798829366</v>
       </c>
       <c r="I91" t="n">
-        <v>0.483952646448683</v>
+        <v>20.1168909906032</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.706008722974416</v>
+        <v>0.992072779395166</v>
       </c>
       <c r="K91" t="n">
-        <v>96</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0.113011566444243</v>
+        <v>9.4390874280618</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>85.6213667483149</v>
+        <v>-407.987618225903</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>-1.6876562092009</v>
+        <v>2.28457287401709</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.571574032439811</v>
+        <v>-0.337287468408012</v>
       </c>
       <c r="E92" t="n">
-        <v>-2.16060546558001</v>
+        <v>0.610562547061503</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.31752432570164</v>
+        <v>0.374607750070971</v>
       </c>
       <c r="G92" t="n">
-        <v>0.317845760841915</v>
+        <v>-0.624973381955534</v>
       </c>
       <c r="H92" t="n">
-        <v>0.460006841931061</v>
+        <v>3.18870754595158</v>
       </c>
       <c r="I92" t="n">
-        <v>0.371572413878622</v>
+        <v>1.42910616631586</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.519966311024037</v>
+        <v>-0.359263910738594</v>
       </c>
       <c r="K92" t="n">
-        <v>43</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0.126320515436306</v>
+        <v>7.69876133237844</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>80.7061292863874</v>
+        <v>-408.954987004115</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>-1.92807811040933</v>
+        <v>-0.365891642406907</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.727855061074606</v>
+        <v>2.26560291825939</v>
       </c>
       <c r="E93" t="n">
-        <v>-1.33245676663674</v>
+        <v>3.16922615615185</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.0880143163877</v>
+        <v>-1.34680845277192</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0888736023969732</v>
+        <v>0.999199045684711</v>
       </c>
       <c r="H93" t="n">
-        <v>0.441700778192243</v>
+        <v>3.74445372944609</v>
       </c>
       <c r="I93" t="n">
-        <v>0.569360611004347</v>
+        <v>7.62256268131343</v>
       </c>
       <c r="J93" t="n">
-        <v>-0.627178075077011</v>
+        <v>0.989821597412314</v>
       </c>
       <c r="K93" t="n">
-        <v>10</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0.116511399719961</v>
+        <v>7.1688425935128</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>75.3149608360622</v>
+        <v>-416.89174165155</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.91990481692641</v>
+        <v>1.98867293534377</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.629445588787697</v>
+        <v>2.09433894275299</v>
       </c>
       <c r="E94" t="n">
-        <v>-1.46220749646479</v>
+        <v>0.206105396624279</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.36424806525956</v>
+        <v>-1.19119529638148</v>
       </c>
       <c r="G94" t="n">
-        <v>0.365131838777119</v>
+        <v>0.999245911085065</v>
       </c>
       <c r="H94" t="n">
-        <v>0.426412251881248</v>
+        <v>4.51629956485024</v>
       </c>
       <c r="I94" t="n">
-        <v>0.522151939457791</v>
+        <v>3.01511993013615</v>
       </c>
       <c r="J94" t="n">
-        <v>-0.560934285935848</v>
+        <v>0.975490725323971</v>
       </c>
       <c r="K94" t="n">
-        <v>69</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0.156168437501625</v>
+        <v>8.48180597301723</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>74.3086857458055</v>
+        <v>-450.768498576492</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>-1.33571250206517</v>
+        <v>2.24601935433454</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.784540998957805</v>
+        <v>2.44132993306385</v>
       </c>
       <c r="E95" t="n">
-        <v>-1.44644767549162</v>
+        <v>-0.559314979455002</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.13702953289211</v>
+        <v>-0.527396877946574</v>
       </c>
       <c r="G95" t="n">
-        <v>0.137757477223961</v>
+        <v>0.999550378798627</v>
       </c>
       <c r="H95" t="n">
-        <v>0.587408321510091</v>
+        <v>5.39581745801702</v>
       </c>
       <c r="I95" t="n">
-        <v>0.560863016000299</v>
+        <v>3.13762535792426</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.655489000866705</v>
+        <v>0.99053238729093</v>
       </c>
       <c r="K95" t="n">
-        <v>91</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0.115126877536896</v>
+        <v>8.87913841919247</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>68.5379668899026</v>
+        <v>-451.87257584228</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>-1.18986125849054</v>
+        <v>0.906189127460037</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.665135755742937</v>
+        <v>-1.29207055408062</v>
       </c>
       <c r="E96" t="n">
-        <v>-1.65457765341835</v>
+        <v>0.552072814650715</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.09084806721961</v>
+        <v>0.435239182329644</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0914405256002102</v>
+        <v>0.99923487302017</v>
       </c>
       <c r="H96" t="n">
-        <v>0.603612503512882</v>
+        <v>2.14038565755101</v>
       </c>
       <c r="I96" t="n">
-        <v>0.492709962419186</v>
+        <v>1.90276684926298</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.585130236008894</v>
+        <v>-0.860723427030822</v>
       </c>
       <c r="K96" t="n">
-        <v>71</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0.111512816029455</v>
+        <v>5.78824072423357</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>65.241560974389</v>
+        <v>-457.168341376868</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>-1.32518909248526</v>
+        <v>2.12166556221368</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.643360353807109</v>
+        <v>-0.583764675512953</v>
       </c>
       <c r="E97" t="n">
-        <v>-1.33909303138322</v>
+        <v>0.889983335329876</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.06646441242007</v>
+        <v>-1.2355830513515</v>
       </c>
       <c r="G97" t="n">
-        <v>0.066787333934652</v>
+        <v>0.999403311337008</v>
       </c>
       <c r="H97" t="n">
-        <v>0.567812153637774</v>
+        <v>3.05810909092727</v>
       </c>
       <c r="I97" t="n">
-        <v>0.564342780229316</v>
+        <v>1.76325150356945</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.567186252118636</v>
+        <v>-0.548736084849846</v>
       </c>
       <c r="K97" t="n">
-        <v>77</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.112595079845734</v>
+        <v>8.12367854027499</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>-469.693781212389</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.02121632860931</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-1.74785362766041</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.627780770934512</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-1.96403994152324</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.999063939995827</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2.74516057840886</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2.46958242952636</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-0.941711472532769</v>
+      </c>
+      <c r="K98" t="n">
+        <v>2.35110732361799</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>-479.316139695771</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.672521679794736</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-2.25199310290874</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.578403277977474</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-1.52869364653777</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.999259753289852</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3.02832998796781</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2.96706475140367</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-0.978124614422803</v>
+      </c>
+      <c r="K99" t="n">
+        <v>8.32506263122287</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>-542.363653301859</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.38168653670894</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-0.0355970739968312</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-1.809971781612</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.246384351683055</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.999854859694044</v>
+      </c>
+      <c r="H100" t="n">
+        <v>3.29023470230164</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.405435726712635</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-0.0678716368397899</v>
+      </c>
+      <c r="K100" t="n">
+        <v>9.71235630448731</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>-568.537012075849</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-1.85131168054424</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1.57963115375682</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4.61773974066359</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.826252517501103</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.173503956749303</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2.73903019992655</v>
+      </c>
+      <c r="I101" t="n">
+        <v>11.7684549010996</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.992318373891808</v>
+      </c>
+      <c r="K101" t="n">
+        <v>6.88668136347259</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>-597.088261813726</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-0.177679031188352</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-1.44612573278894</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0.341309304424241</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.33326259940475</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.999842266330071</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.34909042958038</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1.28250040370228</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-0.895099625140918</v>
+      </c>
+      <c r="K102" t="n">
+        <v>4.53663765342302</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>-626.88670952931</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>3.24483951981825</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3.08038074505353</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-2.07380917261835</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.0264517065233345</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.999593007761186</v>
+      </c>
+      <c r="H103" t="n">
+        <v>9.3222159927654</v>
+      </c>
+      <c r="I103" t="n">
+        <v>4.27045339824807</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.998981931845013</v>
+      </c>
+      <c r="K103" t="n">
+        <v>9.41419761261514</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>-666.132342214189</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.678830822827292</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-1.16505056240889</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-0.346950601235034</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-1.71107529974083</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.999312885300088</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.74815184992853</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1.22086928500623</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-0.833102278410161</v>
+      </c>
+      <c r="K104" t="n">
+        <v>6.38560697769844</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>-746.338435056065</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>4.82667399390247</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.83762965401639</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-3.79052366781437</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.79461138790687</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.999904329227357</v>
+      </c>
+      <c r="H105" t="n">
+        <v>16.371972083954</v>
+      </c>
+      <c r="I105" t="n">
+        <v>4.9078593277267</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.999781714155736</v>
+      </c>
+      <c r="K105" t="n">
+        <v>9.59826548130379</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>-754.015684036846</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4.99222744339701</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3.82407146662766</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0.158934786639157</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.705734221960338</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.999117903994921</v>
+      </c>
+      <c r="H106" t="n">
+        <v>29.6345211934143</v>
+      </c>
+      <c r="I106" t="n">
+        <v>15.7724349076714</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.99971245126422</v>
+      </c>
+      <c r="K106" t="n">
+        <v>9.79439867920866</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>-783.372301327459</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.0722383340868943</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.2231885366817</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.93312109155619</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.755830011346487</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.999379133794531</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2.03550980549974</v>
+      </c>
+      <c r="I107" t="n">
+        <v>5.10419920364374</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.901625056717227</v>
+      </c>
+      <c r="K107" t="n">
+        <v>7.25372765420012</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>-795.263357047388</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.28401331763364</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.0509832772854274</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-0.651577673650618</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.974667531867482</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-0.0246030401612611</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.9010021809099</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.722957076345886</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.0592431354039345</v>
+      </c>
+      <c r="K108" t="n">
+        <v>7.41921121637116</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>-798.824707144158</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.982365720871379</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-0.692348144156</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-0.127173927399931</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.207475101377323</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.999588942195281</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1.77330674767266</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1.10040588373296</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-0.618357110126888</v>
+      </c>
+      <c r="K109" t="n">
+        <v>6.98307663308625</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>-859.358328624751</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-4.56406470751525</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3.30100333668571</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3.59500214283597</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-1.16235347742006</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.999632246410363</v>
+      </c>
+      <c r="H110" t="n">
+        <v>3.61109937728385</v>
+      </c>
+      <c r="I110" t="n">
+        <v>10.2024140850265</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.999860216129547</v>
+      </c>
+      <c r="K110" t="n">
+        <v>6.93178009733074</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>-875.492487289588</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2.92208128500858</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.23968177407266</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-1.44160571864532</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.011162789950945</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.999777719426301</v>
+      </c>
+      <c r="H111" t="n">
+        <v>4.91020840669735</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.35726340522581</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.949234322239831</v>
+      </c>
+      <c r="K111" t="n">
+        <v>9.81165685966071</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>-902.042415916836</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4.29938866337991</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2.41839440531131</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-5.21196684494534</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.886608152822744</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.999824579032427</v>
+      </c>
+      <c r="H112" t="n">
+        <v>11.1514218753443</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2.67308585331308</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.999774053772358</v>
+      </c>
+      <c r="K112" t="n">
+        <v>10.620469627351</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>-947.57774707301</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>9.11425304068596</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.83875663751752</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-2.57597697966966</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.05304113260403</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.999811863892878</v>
+      </c>
+      <c r="H113" t="n">
+        <v>108.49111384464</v>
+      </c>
+      <c r="I113" t="n">
+        <v>16.6637520726476</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.999894270482231</v>
+      </c>
+      <c r="K113" t="n">
+        <v>10.9673699891325</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>-974.95071578521</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-2.3862130140745</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2.00112396219916</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2.58917734255482</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.427218119073783</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.999072021628933</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.73676030605132</v>
+      </c>
+      <c r="I114" t="n">
+        <v>4.89730435527867</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.991496990314994</v>
+      </c>
+      <c r="K114" t="n">
+        <v>7.12675957280098</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>-997.105880820675</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.47310281823766</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3.65910338748912</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-1.9737609266579</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.42869498661473</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.999672928973295</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3.8389551638823</v>
+      </c>
+      <c r="I115" t="n">
+        <v>2.76515554678305</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.999010097858879</v>
+      </c>
+      <c r="K115" t="n">
+        <v>10.4335133738267</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>-1070.19874773914</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>11.0962024609074</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.58200632057287</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-1.51547064421463</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.13012464638984</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.999084258234846</v>
+      </c>
+      <c r="H116" t="n">
+        <v>280.967459158275</v>
+      </c>
+      <c r="I116" t="n">
+        <v>34.7092952287458</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.999923854917611</v>
+      </c>
+      <c r="K116" t="n">
+        <v>11.0763153147102</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>-1097.77833413751</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>9.11434842072086</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2.43739327772477</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-3.19409333333714</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1.19221302138794</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.999218724524046</v>
+      </c>
+      <c r="H117" t="n">
+        <v>118.136314166125</v>
+      </c>
+      <c r="I117" t="n">
+        <v>22.5428346091891</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.999973738112301</v>
+      </c>
+      <c r="K117" t="n">
+        <v>11.0777760693623</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>-1140.60867575418</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>18.6930935074451</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.81510402940465</v>
+      </c>
+      <c r="E118" t="n">
+        <v>10.891666627739</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.702753103201956</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.999237197577557</v>
+      </c>
+      <c r="H118" t="n">
+        <v>13676.9418455128</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3031.96361336641</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.997946530564154</v>
+      </c>
+      <c r="K118" t="n">
+        <v>9.91448458085013</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>-1165.3594426712</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.814511561419091</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-0.690457355562064</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-0.166778291144508</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-1.00724302796275</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.99964486998904</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1.63436021465755</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1.07070004994654</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-0.613081535261393</v>
+      </c>
+      <c r="K119" t="n">
+        <v>7.92878972898572</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>-1201.75289479881</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.34849987958891</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.19738636053264</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-2.22526578721746</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.286594284419566</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.999464936582807</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2.99009726917357</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1.43273397769585</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.988598115764011</v>
+      </c>
+      <c r="K120" t="n">
+        <v>9.52159027371503</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>-1214.87685215716</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9.93401175461692</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2.68952593160543</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-2.85355638905759</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.824545753398633</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.999340509265805</v>
+      </c>
+      <c r="H121" t="n">
+        <v>184.634283201638</v>
+      </c>
+      <c r="I121" t="n">
+        <v>37.2525555919633</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.999987438584122</v>
+      </c>
+      <c r="K121" t="n">
+        <v>10.6465938799495</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>-1312.49954727174</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.518075844325106</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-1.00798154961546</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-0.446332877014904</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0.879518749958637</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.999910139279981</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1.5376279045812</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1.06924032730268</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-0.776228026334426</v>
+      </c>
+      <c r="K122" t="n">
+        <v>7.98538625273331</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>-1343.72732161754</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>8.99305761685923</v>
+      </c>
+      <c r="D123" t="n">
+        <v>3.47175866659081</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-4.40575176666328</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.67739304525074</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.99977357091742</v>
+      </c>
+      <c r="H123" t="n">
+        <v>133.052564901434</v>
+      </c>
+      <c r="I123" t="n">
+        <v>32.4274736444142</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.999997361607142</v>
+      </c>
+      <c r="K123" t="n">
+        <v>12.1653799889876</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>-1350.45821867489</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.551330728440849</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-1.12387016933007</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.0933652259487056</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-1.83454107318879</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.999305842686472</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1.6680529680718</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1.4150020446654</v>
+      </c>
+      <c r="J124" t="n">
+        <v>-0.811158409599559</v>
+      </c>
+      <c r="K124" t="n">
+        <v>8.97349948071436</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>-1354.78384164117</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>8.27794482829837</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4.36712430443133</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-3.58533553775406</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.11267782251393</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.999039457342699</v>
+      </c>
+      <c r="H125" t="n">
+        <v>122.104400035949</v>
+      </c>
+      <c r="I125" t="n">
+        <v>40.1011783824846</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.999997724022723</v>
+      </c>
+      <c r="K125" t="n">
+        <v>10.7108385361643</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>-1383.17055570641</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4.51132658207771</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-4.92325457200558</v>
+      </c>
+      <c r="E126" t="n">
+        <v>11.3808726780634</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0.614664775658708</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.999104641646198</v>
+      </c>
+      <c r="H126" t="n">
+        <v>494.462029607344</v>
+      </c>
+      <c r="I126" t="n">
+        <v>947.863992740486</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-0.999981840225725</v>
+      </c>
+      <c r="K126" t="n">
+        <v>571.988496741136</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>-1461.26239194458</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-0.777807779359513</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-1.42327056282185</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-1.72600642713314</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-1.62259784892701</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.99937711481188</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.930187828074082</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.69305565303386</v>
+      </c>
+      <c r="J127" t="n">
+        <v>-0.896238353413985</v>
+      </c>
+      <c r="K127" t="n">
+        <v>5.04700736376853</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>-1468.10042869622</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>8.35814749311753</v>
+      </c>
+      <c r="D128" t="n">
+        <v>6.2946522338214</v>
+      </c>
+      <c r="E128" t="n">
+        <v>6.00196899833419</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.953167631614033</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.999153545816987</v>
+      </c>
+      <c r="H128" t="n">
+        <v>685.304840713538</v>
+      </c>
+      <c r="I128" t="n">
+        <v>568.94478404361</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.999994330004062</v>
+      </c>
+      <c r="K128" t="n">
+        <v>9.53801252241831</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>-1504.10696354243</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>5.73790768781077</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-5.12541667846277</v>
+      </c>
+      <c r="E129" t="n">
+        <v>13.3269713458392</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-0.496449219548879</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.999259418977295</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1282.13734977475</v>
+      </c>
+      <c r="I129" t="n">
+        <v>2544.46756712168</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-0.999991052931403</v>
+      </c>
+      <c r="K129" t="n">
+        <v>585.491219862881</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>-1551.59115181535</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.159736843867588</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-0.754088081808425</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-0.639366886465889</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0.24078901459243</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.999165208171009</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1.20208840107842</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.858580802933059</v>
+      </c>
+      <c r="J130" t="n">
+        <v>-0.647211114753734</v>
+      </c>
+      <c r="K130" t="n">
+        <v>6.8776314273059</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>-1592.01393056871</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.640542434853271</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-0.981457601166466</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.348953129308828</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-0.905128115009919</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.999837354616325</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1.67218601126062</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1.49517537462081</v>
+      </c>
+      <c r="J131" t="n">
+        <v>-0.754779700650901</v>
+      </c>
+      <c r="K131" t="n">
+        <v>9.48027843370489</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>-1608.49033932015</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.2527280362821</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-1.18984774687765</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.00805333240508822</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-0.677243620008858</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.999446049792217</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1.49373542465701</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1.37153403767902</v>
+      </c>
+      <c r="J132" t="n">
+        <v>-0.831119853670266</v>
+      </c>
+      <c r="K132" t="n">
+        <v>8.55334598112422</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>-1674.37958487422</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-4.57181081711215</v>
+      </c>
+      <c r="D133" t="n">
+        <v>3.89283807402215</v>
+      </c>
+      <c r="E133" t="n">
+        <v>11.0265320771438</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.08707218287193</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.0879491662044926</v>
+      </c>
+      <c r="H133" t="n">
+        <v>90.0012659183189</v>
+      </c>
+      <c r="I133" t="n">
+        <v>381.842512013923</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.999999730874968</v>
+      </c>
+      <c r="K133" t="n">
+        <v>7.036471274685</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>-1695.42275291555</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.240202599832591</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-1.11329220457264</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.226739522431514</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.279954865085809</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.999943198080245</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1.46298111447395</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1.45587548368724</v>
+      </c>
+      <c r="J134" t="n">
+        <v>-0.805225035467102</v>
+      </c>
+      <c r="K134" t="n">
+        <v>8.61607384429031</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>-1705.59699757837</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.868774641493098</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-0.228041828383203</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-1.16622847020882</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-1.90180399153699</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.999433274860575</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1.55531780124378</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.574185919677408</v>
+      </c>
+      <c r="J135" t="n">
+        <v>-0.262170333858771</v>
+      </c>
+      <c r="K135" t="n">
+        <v>9.16302361301226</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>-1782.2184578111</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.114725268236337</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-0.610144288075953</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-0.821177208149809</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.286015308447935</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.999759583245662</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1.13250473909653</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.747293934354606</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-0.557802257001517</v>
+      </c>
+      <c r="K136" t="n">
+        <v>6.97957022044771</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>-1798.62301333867</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-3.74930350526692</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2.80207636334844</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.79701488070146</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-1.80425589872361</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.999673135761115</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2.35735635843561</v>
+      </c>
+      <c r="I137" t="n">
+        <v>6.37442417244522</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.999145229425319</v>
+      </c>
+      <c r="K137" t="n">
+        <v>7.78725918282866</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>-1863.06986336347</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-0.0866817159255524</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-1.9592754448929</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-0.0411939407685114</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-0.371628237398568</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.999146554940052</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1.83196130727632</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1.85251275891404</v>
+      </c>
+      <c r="J138" t="n">
+        <v>-0.961039643184147</v>
+      </c>
+      <c r="K138" t="n">
+        <v>11.1050357964368</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>-1865.66124921365</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-0.0170821723869916</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-1.09752326995038</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-0.431302268837521</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-0.570975853264362</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.999074146215488</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1.24650587180676</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1.07214828397453</v>
+      </c>
+      <c r="J139" t="n">
+        <v>-0.801512344417326</v>
+      </c>
+      <c r="K139" t="n">
+        <v>7.77016526486433</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>-1906.68235182487</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.111931276254127</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-1.08910762766818</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-0.870022846615275</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-1.00938026935465</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.999828780489863</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1.28679712054061</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.901106939251497</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-0.807160766946785</v>
+      </c>
+      <c r="K140" t="n">
+        <v>8.15008411735314</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>-2117.26618259721</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.10299155978968</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.30862687851403</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-1.38014429725165</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.370847885230414</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.999717200731728</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2.11791128094173</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.972161995628607</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.906206817744946</v>
+      </c>
+      <c r="K141" t="n">
+        <v>9.3241914470368</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>-2148.09549680604</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.24680355662646</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-8.53079707767558</v>
+      </c>
+      <c r="E142" t="n">
+        <v>9.00765857656016</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.36119907398662</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.999357385001516</v>
+      </c>
+      <c r="H142" t="n">
+        <v>920.92159731806</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1355.51534314066</v>
+      </c>
+      <c r="J142" t="n">
+        <v>-0.999999975221979</v>
+      </c>
+      <c r="K142" t="n">
+        <v>981.156886765842</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>-2171.34699583321</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.105441762927167</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-0.838771171849694</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-0.95788040647411</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-1.59486910175109</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.999200664229679</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1.18718319644722</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.771491092513748</v>
+      </c>
+      <c r="J143" t="n">
+        <v>-0.701235618491118</v>
+      </c>
+      <c r="K143" t="n">
+        <v>8.09537074728236</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>-2244.94339839697</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.215688025744844</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-0.558021565294607</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-1.10948793722419</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-1.19535855481388</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.999410314794509</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1.17209414287764</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.645100955951924</v>
+      </c>
+      <c r="J144" t="n">
+        <v>-0.533327293312833</v>
+      </c>
+      <c r="K144" t="n">
+        <v>8.10222791064191</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>-2366.69599340775</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-0.0891023309499487</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-0.75684909050979</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-1.07139987159084</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-0.634240020454453</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.999577888924429</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1.05699875476519</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.699786549426613</v>
+      </c>
+      <c r="J145" t="n">
+        <v>-0.653688959120454</v>
+      </c>
+      <c r="K145" t="n">
+        <v>7.49788951429229</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>-2418.59108178403</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.0682336262037474</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.52388830871813</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-0.42296399929229</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.437393610506218</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.999135638020904</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1.09497261766801</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.874219603638045</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.484343417376224</v>
+      </c>
+      <c r="K146" t="n">
+        <v>7.81942703215593</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>-2431.88790528277</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-0.410499369007843</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-1.66735267589898</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-0.394603765506266</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-0.725288789252682</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.999223395809108</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1.35136348313329</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1.35737519828335</v>
+      </c>
+      <c r="J147" t="n">
+        <v>-0.931201924741058</v>
+      </c>
+      <c r="K147" t="n">
+        <v>9.52571423667667</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>-2458.93305780738</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.133977391123046</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-1.87260403272717</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-0.684387953524983</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-1.22730156025605</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.999604849095754</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1.78233255618349</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1.44855784062384</v>
+      </c>
+      <c r="J148" t="n">
+        <v>-0.955762095916805</v>
+      </c>
+      <c r="K148" t="n">
+        <v>12.5079415776436</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>-2459.12851599446</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.0169590811049063</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-1.21554368515953</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-0.940989912439673</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-0.687672063152058</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.999080005454414</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1.28215894149017</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.923823513882679</v>
+      </c>
+      <c r="J149" t="n">
+        <v>-0.846816107795308</v>
+      </c>
+      <c r="K149" t="n">
+        <v>9.1599153280482</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>-2460.12716013297</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>18.0325383687847</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-0.867938065831499</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-8.10363688113699</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-1.05702034271158</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.99976253723895</v>
+      </c>
+      <c r="H150" t="n">
+        <v>8350.81837422677</v>
+      </c>
+      <c r="I150" t="n">
+        <v>277.011370184745</v>
+      </c>
+      <c r="J150" t="n">
+        <v>-0.999999998083169</v>
+      </c>
+      <c r="K150" t="n">
+        <v>14.6229878498593</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>-2555.22581528939</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>11.1903872514779</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-9.00071800730927</v>
+      </c>
+      <c r="E151" t="n">
+        <v>16.7854383291637</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.678404919738406</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.999238886662895</v>
+      </c>
+      <c r="H151" t="n">
+        <v>71972.9752325223</v>
+      </c>
+      <c r="I151" t="n">
+        <v>97739.2894431801</v>
+      </c>
+      <c r="J151" t="n">
+        <v>-0.999999985736063</v>
+      </c>
+      <c r="K151" t="n">
+        <v>975.392002492728</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>-2603.88382922819</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.1335104659681</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-0.602008504170131</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-0.945258716915236</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-1.48662780080277</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.999236103182532</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1.1384567169216</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.70450006410306</v>
+      </c>
+      <c r="J152" t="n">
+        <v>-0.556465232996473</v>
+      </c>
+      <c r="K152" t="n">
+        <v>8.43646660279018</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>-2665.27188277083</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>11.3809553947368</v>
+      </c>
+      <c r="D153" t="n">
+        <v>9.83112250084665</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-1.66850275629875</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1.25130072668695</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.999082813701555</v>
+      </c>
+      <c r="H153" t="n">
+        <v>3645.56791451651</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1955.90497761772</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.999999999837517</v>
+      </c>
+      <c r="K153" t="n">
+        <v>10.5003202450978</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>-2697.17365652932</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.00541176645963287</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-0.810479923917316</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-0.873432416404522</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-1.61259612329372</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.999928637663843</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1.12698918051138</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.785197470653162</v>
+      </c>
+      <c r="J154" t="n">
+        <v>-0.68111986587565</v>
+      </c>
+      <c r="K154" t="n">
+        <v>8.50566559361677</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>-2904.59876202904</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.75035673842237</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.324317159634753</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-3.8877157428867</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-0.163647385137283</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.999212795257129</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2.41775704061963</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.198150513746836</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.697155726463307</v>
+      </c>
+      <c r="K155" t="n">
+        <v>10.3956373614981</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>-3259.27916670806</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.0281201754778143</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-12.508464298042</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-0.592439056804403</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.118248261072509</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.999395195015088</v>
+      </c>
+      <c r="H156" t="n">
+        <v>324.002243830498</v>
+      </c>
+      <c r="I156" t="n">
+        <v>316.064849350633</v>
+      </c>
+      <c r="J156" t="n">
+        <v>-0.999999999972883</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1191.68149655713</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>-3542.16522296888</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-0.844419381458257</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-1.8022630031752</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-0.724989668149141</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-0.562696735585606</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.999730383992354</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1.17369739274453</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1.21110589891225</v>
+      </c>
+      <c r="J157" t="n">
+        <v>-0.947088246271977</v>
+      </c>
+      <c r="K157" t="n">
+        <v>10.0021160645675</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>-3894.93867542782</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>31.9338547999061</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-1.12358740424907</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-1.48655257950863</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-1.41923477379591</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.999364202688395</v>
+      </c>
+      <c r="H158" t="n">
+        <v>8755826.63451922</v>
+      </c>
+      <c r="I158" t="n">
+        <v>294037.165512599</v>
+      </c>
+      <c r="J158" t="n">
+        <v>-0.999999999998739</v>
+      </c>
+      <c r="K158" t="n">
+        <v>12.8501258929348</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>-3901.2843024611</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9.78006443371442</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-15.622080481364</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-5.34547425325489</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.840130560183128</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.999236368675232</v>
+      </c>
+      <c r="H159" t="n">
+        <v>15079.8640383961</v>
+      </c>
+      <c r="I159" t="n">
+        <v>9453.71718507381</v>
+      </c>
+      <c r="J159" t="n">
+        <v>-0.999999999999998</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1546.02033817275</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>-4046.15100737776</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.240467822836277</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-0.0280369297891498</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-5.15944586937756</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-1.76414546054121</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.999582638433839</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1.12782756965498</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.0760143390286479</v>
+      </c>
+      <c r="J160" t="n">
+        <v>-0.0766855422681081</v>
+      </c>
+      <c r="K160" t="n">
+        <v>10.5678362037495</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>-4209.67773229254</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-0.854925018024918</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-1.26785134812895</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-1.04480793039281</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-0.597035102276912</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.999775456073619</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.889552919772157</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.83451181739898</v>
+      </c>
+      <c r="J161" t="n">
+        <v>-0.853530146056026</v>
+      </c>
+      <c r="K161" t="n">
+        <v>8.38911410897498</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>-4550.03471083493</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.355883411323484</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-1.98591519123711</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-1.30882869590087</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-1.6862512105026</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.999266119124422</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1.93135054233948</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1.30019578737088</v>
+      </c>
+      <c r="J162" t="n">
+        <v>-0.96894236390256</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1.88556632829007</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>-5035.78114972423</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-1.50900628616988</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-1.69985519131822</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-1.8644682443468</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-1.28113380922863</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.999431185893581</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.761251296621594</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.690394649942992</v>
+      </c>
+      <c r="J163" t="n">
+        <v>-0.935911180311704</v>
+      </c>
+      <c r="K163" t="n">
+        <v>7.83728626652146</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>-6169.88458457985</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-1.24057239845352</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-1.31563017692625</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-1.80514066374119</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-0.896532620406404</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.99976572038199</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.727366061274974</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.604374924779612</v>
+      </c>
+      <c r="J164" t="n">
+        <v>-0.868263358799502</v>
+      </c>
+      <c r="K164" t="n">
+        <v>8.32507610982616</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>-6838.29986374775</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-0.765014904760239</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-0.924963767900392</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-1.12645116613519</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-1.21736782318657</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.999377448289035</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.809374784094366</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.702127912231758</v>
+      </c>
+      <c r="J165" t="n">
+        <v>-0.729996287779436</v>
+      </c>
+      <c r="K165" t="n">
+        <v>9.77845471431457</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>-6887.8915884857</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-1.17628186437663</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-0.398652976325288</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-2.79280454216013</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.129419365359603</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.999022225511468</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.569115513556145</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.265312301745913</v>
+      </c>
+      <c r="J166" t="n">
+        <v>-0.414034500400161</v>
+      </c>
+      <c r="K166" t="n">
+        <v>6.99360969248827</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>-6944.73524873192</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-1.34223156353454</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-1.75909625957387</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-1.33739504415886</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-0.202526206800796</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.99917873284121</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.884291430317445</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.885437804007979</v>
+      </c>
+      <c r="J167" t="n">
+        <v>-0.942402071430611</v>
+      </c>
+      <c r="K167" t="n">
+        <v>10.6095098515679</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>-8852.2909639799</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-0.995332553378668</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-0.804484406807696</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-1.61592659202721</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-1.64726323998314</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.999017084883385</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.687784679308913</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.532200214141526</v>
+      </c>
+      <c r="J168" t="n">
+        <v>-0.672207220330884</v>
+      </c>
+      <c r="K168" t="n">
+        <v>9.38674365952607</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>-11256.517472634</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-1.22419649570153</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-0.73707014813916</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-1.53507734543619</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-0.988951238207351</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.999307741288755</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.607815403702854</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.532529942461587</v>
+      </c>
+      <c r="J169" t="n">
+        <v>-0.628849367027283</v>
+      </c>
+      <c r="K169" t="n">
+        <v>9.4360011375097</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>-12253.6267664532</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-1.43845059593825</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-0.627500665063279</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-1.68587913662718</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-0.6300545116894</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.999787978809873</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.530844406840259</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.47571461827771</v>
+      </c>
+      <c r="J170" t="n">
+        <v>-0.557283555382175</v>
+      </c>
+      <c r="K170" t="n">
+        <v>8.6014692456385</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>-41245.5213385524</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-2.12280874970336</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-1.45321212866869</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-4.00230821086176</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-1.78578989042851</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.999989603778707</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.453365084045269</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.258272269070256</v>
+      </c>
+      <c r="J171" t="n">
+        <v>-0.916771220273087</v>
+      </c>
+      <c r="K171" t="n">
+        <v>3.93009233514355</v>
       </c>
     </row>
   </sheetData>
